--- a/tabular/genus/ibv/ibv-strains.complete.out.xlsx
+++ b/tabular/genus/ibv/ibv-strains.complete.out.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/flu/Flu-GLUE/perl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/flu/Flu-GLUE/tabular/genus/ibv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{715993D2-2067-E141-84AA-E301EE88AFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65F7916-967A-504A-AB4D-C33153D6117E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strains.complete.out" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>B/Nicaragua/6207_12/2016</t>
   </si>
   <si>
-    <t>-|-|-|Victoria|-|-|-|-</t>
-  </si>
-  <si>
     <t>Victoria-</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>B/New York/B-WC-LVD-17-005/2017</t>
   </si>
   <si>
-    <t>-|-|-|Yamagata|-|-|-|-</t>
-  </si>
-  <si>
     <t>Yamagata-</t>
   </si>
   <si>
@@ -2531,12 +2525,18 @@
   </si>
   <si>
     <t>CY263073</t>
+  </si>
+  <si>
+    <t>nk|nk|nk|Victoria|nk|nk|nk|nk</t>
+  </si>
+  <si>
+    <t>nk|nk|nk|Yamagata|nk|nk|nk|nk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3075,7 +3075,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3363,18 +3363,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="M12" sqref="A1:AB86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3476,55 +3476,55 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
       <c r="F2">
         <v>2016</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
-      </c>
-      <c r="T2" t="s">
-        <v>43</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3562,55 +3562,55 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>2017</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>19</v>
       </c>
       <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
       <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>51</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>52</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>54</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>55</v>
-      </c>
-      <c r="S3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" t="s">
-        <v>57</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3648,55 +3648,55 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>60</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>61</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>62</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>63</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>64</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>65</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>66</v>
-      </c>
-      <c r="S4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" t="s">
-        <v>68</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3734,55 +3734,55 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>835</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
       </c>
       <c r="F5">
         <v>2016</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>28</v>
       </c>
       <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
         <v>71</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>72</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>73</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>75</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>76</v>
-      </c>
-      <c r="S5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" t="s">
-        <v>78</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3820,55 +3820,55 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>835</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
       </c>
       <c r="F6">
         <v>2016</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>17</v>
       </c>
       <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>83</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>84</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>85</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>86</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>87</v>
-      </c>
-      <c r="S6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T6" t="s">
-        <v>89</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3906,55 +3906,55 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>835</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
       </c>
       <c r="F7">
         <v>2012</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>8</v>
       </c>
       <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
       <c r="M7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>92</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>93</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>94</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>95</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>96</v>
-      </c>
-      <c r="S7" t="s">
-        <v>97</v>
-      </c>
-      <c r="T7" t="s">
-        <v>98</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3992,55 +3992,55 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>2016</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>101</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>102</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>103</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>105</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>106</v>
-      </c>
-      <c r="S8" t="s">
-        <v>107</v>
-      </c>
-      <c r="T8" t="s">
-        <v>108</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4078,55 +4078,55 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>2017</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
       <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" t="s">
         <v>111</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>112</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>113</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>114</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>115</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>116</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>117</v>
-      </c>
-      <c r="S9" t="s">
-        <v>118</v>
-      </c>
-      <c r="T9" t="s">
-        <v>119</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4164,55 +4164,55 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>835</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
       </c>
       <c r="F10">
         <v>2016</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10">
         <v>21</v>
       </c>
       <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
         <v>32</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>33</v>
       </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M10" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
         <v>121</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>122</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>123</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>124</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>125</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>126</v>
-      </c>
-      <c r="S10" t="s">
-        <v>127</v>
-      </c>
-      <c r="T10" t="s">
-        <v>128</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4250,55 +4250,55 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>835</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
       </c>
       <c r="F11">
         <v>2017</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
         <v>32</v>
       </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" t="s">
         <v>130</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>131</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>132</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>133</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>134</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>135</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>136</v>
-      </c>
-      <c r="S11" t="s">
-        <v>137</v>
-      </c>
-      <c r="T11" t="s">
-        <v>138</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4336,55 +4336,55 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>2017</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H12">
         <v>15</v>
       </c>
       <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
         <v>32</v>
       </c>
-      <c r="J12" t="s">
-        <v>33</v>
-      </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" t="s">
         <v>140</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>141</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>142</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>143</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>144</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>145</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>146</v>
-      </c>
-      <c r="S12" t="s">
-        <v>147</v>
-      </c>
-      <c r="T12" t="s">
-        <v>148</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4422,55 +4422,55 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
+        <v>835</v>
+      </c>
+      <c r="E13" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
       </c>
       <c r="F13">
         <v>2012</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>8</v>
       </c>
       <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
         <v>32</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>33</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>34</v>
       </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
       <c r="M13" t="s">
+        <v>148</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
         <v>150</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>151</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>152</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>153</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>154</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>155</v>
-      </c>
-      <c r="S13" t="s">
-        <v>156</v>
-      </c>
-      <c r="T13" t="s">
-        <v>157</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4508,55 +4508,55 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
+        <v>835</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
       </c>
       <c r="F14">
         <v>2012</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
         <v>32</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>33</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
       <c r="M14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
         <v>159</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>160</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>161</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>162</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>163</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>164</v>
-      </c>
-      <c r="S14" t="s">
-        <v>165</v>
-      </c>
-      <c r="T14" t="s">
-        <v>166</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4594,55 +4594,55 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
+        <v>835</v>
+      </c>
+      <c r="E15" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
       </c>
       <c r="F15">
         <v>2016</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>25</v>
       </c>
       <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
         <v>32</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>33</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>34</v>
       </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
       <c r="M15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" t="s">
         <v>168</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>169</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>170</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>171</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>172</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>173</v>
-      </c>
-      <c r="S15" t="s">
-        <v>174</v>
-      </c>
-      <c r="T15" t="s">
-        <v>175</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4680,55 +4680,55 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16">
         <v>2014</v>
       </c>
       <c r="G16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
         <v>32</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>33</v>
       </c>
-      <c r="K16" t="s">
-        <v>34</v>
-      </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M16" t="s">
+        <v>176</v>
+      </c>
+      <c r="N16" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" t="s">
         <v>178</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>179</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>180</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>181</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>182</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>183</v>
-      </c>
-      <c r="S16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T16" t="s">
-        <v>185</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4766,55 +4766,55 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
+        <v>835</v>
+      </c>
+      <c r="E17" t="s">
         <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
       </c>
       <c r="F17">
         <v>2012</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
         <v>32</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>33</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>34</v>
       </c>
-      <c r="L17" t="s">
-        <v>35</v>
-      </c>
       <c r="M17" t="s">
+        <v>185</v>
+      </c>
+      <c r="N17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" t="s">
         <v>187</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>188</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>189</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>190</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>191</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>192</v>
-      </c>
-      <c r="S17" t="s">
-        <v>193</v>
-      </c>
-      <c r="T17" t="s">
-        <v>194</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4852,55 +4852,55 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
+        <v>835</v>
+      </c>
+      <c r="E18" t="s">
         <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
       </c>
       <c r="F18">
         <v>2016</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18">
         <v>29</v>
       </c>
       <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
         <v>32</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>33</v>
       </c>
-      <c r="K18" t="s">
-        <v>34</v>
-      </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M18" t="s">
+        <v>194</v>
+      </c>
+      <c r="N18" t="s">
+        <v>195</v>
+      </c>
+      <c r="O18" t="s">
         <v>196</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>197</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>198</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>199</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>200</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>201</v>
-      </c>
-      <c r="S18" t="s">
-        <v>202</v>
-      </c>
-      <c r="T18" t="s">
-        <v>203</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4938,55 +4938,55 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>2014</v>
       </c>
       <c r="G19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H19">
         <v>19</v>
       </c>
       <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
         <v>32</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>33</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>34</v>
       </c>
-      <c r="L19" t="s">
-        <v>35</v>
-      </c>
       <c r="M19" t="s">
+        <v>204</v>
+      </c>
+      <c r="N19" t="s">
+        <v>205</v>
+      </c>
+      <c r="O19" t="s">
         <v>206</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>207</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>208</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>209</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>210</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>211</v>
-      </c>
-      <c r="S19" t="s">
-        <v>212</v>
-      </c>
-      <c r="T19" t="s">
-        <v>213</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -5024,55 +5024,55 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
+        <v>835</v>
+      </c>
+      <c r="E20" t="s">
         <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
       </c>
       <c r="F20">
         <v>2012</v>
       </c>
       <c r="G20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H20">
         <v>24</v>
       </c>
       <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
         <v>32</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>33</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>34</v>
       </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
       <c r="M20" t="s">
+        <v>214</v>
+      </c>
+      <c r="N20" t="s">
+        <v>215</v>
+      </c>
+      <c r="O20" t="s">
         <v>216</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>217</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>218</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>219</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>220</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>221</v>
-      </c>
-      <c r="S20" t="s">
-        <v>222</v>
-      </c>
-      <c r="T20" t="s">
-        <v>223</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -5110,55 +5110,55 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>2014</v>
       </c>
       <c r="G21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H21">
         <v>21</v>
       </c>
       <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
         <v>32</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>33</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>34</v>
       </c>
-      <c r="L21" t="s">
-        <v>35</v>
-      </c>
       <c r="M21" t="s">
+        <v>223</v>
+      </c>
+      <c r="N21" t="s">
+        <v>224</v>
+      </c>
+      <c r="O21" t="s">
         <v>225</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>226</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>227</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>228</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>229</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" t="s">
         <v>230</v>
-      </c>
-      <c r="S21" t="s">
-        <v>231</v>
-      </c>
-      <c r="T21" t="s">
-        <v>232</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -5196,55 +5196,55 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
+        <v>835</v>
+      </c>
+      <c r="E22" t="s">
         <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
       </c>
       <c r="F22">
         <v>2016</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H22">
         <v>29</v>
       </c>
       <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" t="s">
         <v>32</v>
       </c>
-      <c r="J22" t="s">
-        <v>33</v>
-      </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
+        <v>232</v>
+      </c>
+      <c r="M22" t="s">
+        <v>233</v>
+      </c>
+      <c r="N22" t="s">
         <v>234</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>235</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>236</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>237</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>238</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>239</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>240</v>
-      </c>
-      <c r="S22" t="s">
-        <v>241</v>
-      </c>
-      <c r="T22" t="s">
-        <v>242</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -5282,55 +5282,55 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
+        <v>835</v>
+      </c>
+      <c r="E23" t="s">
         <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
       </c>
       <c r="F23">
         <v>2016</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H23">
         <v>5</v>
       </c>
       <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
         <v>32</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>33</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>34</v>
       </c>
-      <c r="L23" t="s">
-        <v>35</v>
-      </c>
       <c r="M23" t="s">
+        <v>242</v>
+      </c>
+      <c r="N23" t="s">
+        <v>243</v>
+      </c>
+      <c r="O23" t="s">
         <v>244</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>245</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>246</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>247</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>248</v>
       </c>
-      <c r="R23" t="s">
+      <c r="T23" t="s">
         <v>249</v>
-      </c>
-      <c r="S23" t="s">
-        <v>250</v>
-      </c>
-      <c r="T23" t="s">
-        <v>251</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -5368,55 +5368,55 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
+        <v>835</v>
+      </c>
+      <c r="E24" t="s">
         <v>29</v>
-      </c>
-      <c r="E24" t="s">
-        <v>30</v>
       </c>
       <c r="F24">
         <v>2016</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>14</v>
       </c>
       <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="s">
         <v>32</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>33</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>34</v>
       </c>
-      <c r="L24" t="s">
-        <v>35</v>
-      </c>
       <c r="M24" t="s">
+        <v>251</v>
+      </c>
+      <c r="N24" t="s">
+        <v>252</v>
+      </c>
+      <c r="O24" t="s">
         <v>253</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>254</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>255</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>256</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>257</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>258</v>
-      </c>
-      <c r="S24" t="s">
-        <v>259</v>
-      </c>
-      <c r="T24" t="s">
-        <v>260</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -5454,55 +5454,55 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>2016</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>14</v>
       </c>
       <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
         <v>32</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>33</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>34</v>
       </c>
-      <c r="L25" t="s">
-        <v>35</v>
-      </c>
       <c r="M25" t="s">
+        <v>260</v>
+      </c>
+      <c r="N25" t="s">
+        <v>261</v>
+      </c>
+      <c r="O25" t="s">
         <v>262</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>263</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>264</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>265</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>266</v>
       </c>
-      <c r="R25" t="s">
+      <c r="T25" t="s">
         <v>267</v>
-      </c>
-      <c r="S25" t="s">
-        <v>268</v>
-      </c>
-      <c r="T25" t="s">
-        <v>269</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -5540,55 +5540,55 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
+        <v>835</v>
+      </c>
+      <c r="E26" t="s">
         <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
       </c>
       <c r="F26">
         <v>2016</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H26">
         <v>12</v>
       </c>
       <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
         <v>32</v>
       </c>
-      <c r="J26" t="s">
-        <v>33</v>
-      </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L26" t="s">
+        <v>269</v>
+      </c>
+      <c r="M26" t="s">
+        <v>270</v>
+      </c>
+      <c r="N26" t="s">
         <v>271</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
         <v>272</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>273</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>274</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>275</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S26" t="s">
         <v>276</v>
       </c>
-      <c r="R26" t="s">
+      <c r="T26" t="s">
         <v>277</v>
-      </c>
-      <c r="S26" t="s">
-        <v>278</v>
-      </c>
-      <c r="T26" t="s">
-        <v>279</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -5626,55 +5626,55 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27">
         <v>2014</v>
       </c>
       <c r="G27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H27">
         <v>6</v>
       </c>
       <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" t="s">
         <v>32</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>33</v>
       </c>
-      <c r="K27" t="s">
-        <v>34</v>
-      </c>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" t="s">
+        <v>279</v>
+      </c>
+      <c r="N27" t="s">
+        <v>280</v>
+      </c>
+      <c r="O27" t="s">
         <v>281</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>282</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>283</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>284</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>285</v>
       </c>
-      <c r="R27" t="s">
+      <c r="T27" t="s">
         <v>286</v>
-      </c>
-      <c r="S27" t="s">
-        <v>287</v>
-      </c>
-      <c r="T27" t="s">
-        <v>288</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -5712,55 +5712,55 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F28">
         <v>2016</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H28">
         <v>20</v>
       </c>
       <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" t="s">
         <v>32</v>
       </c>
-      <c r="J28" t="s">
-        <v>33</v>
-      </c>
       <c r="K28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M28" t="s">
+        <v>288</v>
+      </c>
+      <c r="N28" t="s">
+        <v>289</v>
+      </c>
+      <c r="O28" t="s">
         <v>290</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
         <v>291</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>292</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>293</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>294</v>
       </c>
-      <c r="R28" t="s">
+      <c r="T28" t="s">
         <v>295</v>
-      </c>
-      <c r="S28" t="s">
-        <v>296</v>
-      </c>
-      <c r="T28" t="s">
-        <v>297</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -5798,55 +5798,55 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
+        <v>835</v>
+      </c>
+      <c r="E29" t="s">
         <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
       </c>
       <c r="F29">
         <v>2016</v>
       </c>
       <c r="G29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H29">
         <v>26</v>
       </c>
       <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="s">
         <v>32</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>33</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>34</v>
       </c>
-      <c r="L29" t="s">
-        <v>35</v>
-      </c>
       <c r="M29" t="s">
+        <v>297</v>
+      </c>
+      <c r="N29" t="s">
+        <v>298</v>
+      </c>
+      <c r="O29" t="s">
         <v>299</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
         <v>300</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>301</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>302</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="S29" t="s">
         <v>303</v>
       </c>
-      <c r="R29" t="s">
+      <c r="T29" t="s">
         <v>304</v>
-      </c>
-      <c r="S29" t="s">
-        <v>305</v>
-      </c>
-      <c r="T29" t="s">
-        <v>306</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -5884,55 +5884,55 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
+        <v>835</v>
+      </c>
+      <c r="E30" t="s">
         <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>30</v>
       </c>
       <c r="F30">
         <v>2016</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30">
         <v>27</v>
       </c>
       <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" t="s">
         <v>32</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>33</v>
       </c>
-      <c r="K30" t="s">
-        <v>34</v>
-      </c>
       <c r="L30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M30" t="s">
+        <v>306</v>
+      </c>
+      <c r="N30" t="s">
+        <v>307</v>
+      </c>
+      <c r="O30" t="s">
         <v>308</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>309</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
         <v>310</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>311</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="S30" t="s">
         <v>312</v>
       </c>
-      <c r="R30" t="s">
+      <c r="T30" t="s">
         <v>313</v>
-      </c>
-      <c r="S30" t="s">
-        <v>314</v>
-      </c>
-      <c r="T30" t="s">
-        <v>315</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -5970,55 +5970,55 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
+        <v>835</v>
+      </c>
+      <c r="E31" t="s">
         <v>29</v>
-      </c>
-      <c r="E31" t="s">
-        <v>30</v>
       </c>
       <c r="F31">
         <v>2014</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" t="s">
         <v>32</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>33</v>
       </c>
-      <c r="K31" t="s">
-        <v>34</v>
-      </c>
       <c r="L31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M31" t="s">
+        <v>315</v>
+      </c>
+      <c r="N31" t="s">
+        <v>316</v>
+      </c>
+      <c r="O31" t="s">
         <v>317</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>318</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
         <v>319</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>320</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>321</v>
       </c>
-      <c r="R31" t="s">
+      <c r="T31" t="s">
         <v>322</v>
-      </c>
-      <c r="S31" t="s">
-        <v>323</v>
-      </c>
-      <c r="T31" t="s">
-        <v>324</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -6056,55 +6056,55 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
+        <v>835</v>
+      </c>
+      <c r="E32" t="s">
         <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
       </c>
       <c r="F32">
         <v>2016</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H32">
         <v>29</v>
       </c>
       <c r="I32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
         <v>32</v>
       </c>
-      <c r="J32" t="s">
-        <v>33</v>
-      </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M32" t="s">
+        <v>324</v>
+      </c>
+      <c r="N32" t="s">
+        <v>325</v>
+      </c>
+      <c r="O32" t="s">
         <v>326</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>327</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>328</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>329</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="S32" t="s">
         <v>330</v>
       </c>
-      <c r="R32" t="s">
+      <c r="T32" t="s">
         <v>331</v>
-      </c>
-      <c r="S32" t="s">
-        <v>332</v>
-      </c>
-      <c r="T32" t="s">
-        <v>333</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -6142,55 +6142,55 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
+        <v>835</v>
+      </c>
+      <c r="E33" t="s">
         <v>29</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
       </c>
       <c r="F33">
         <v>2017</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H33">
         <v>22</v>
       </c>
       <c r="I33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" t="s">
         <v>32</v>
       </c>
-      <c r="J33" t="s">
-        <v>33</v>
-      </c>
       <c r="K33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L33" t="s">
+        <v>333</v>
+      </c>
+      <c r="M33" t="s">
+        <v>334</v>
+      </c>
+      <c r="N33" t="s">
         <v>335</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>336</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>337</v>
       </c>
-      <c r="O33" t="s">
+      <c r="Q33" t="s">
         <v>338</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>339</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>340</v>
       </c>
-      <c r="R33" t="s">
+      <c r="T33" t="s">
         <v>341</v>
-      </c>
-      <c r="S33" t="s">
-        <v>342</v>
-      </c>
-      <c r="T33" t="s">
-        <v>343</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6219,7 +6219,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
@@ -6228,55 +6228,55 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F34">
         <v>2017</v>
       </c>
       <c r="G34" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H34">
         <v>19</v>
       </c>
       <c r="I34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" t="s">
         <v>32</v>
       </c>
-      <c r="J34" t="s">
-        <v>33</v>
-      </c>
       <c r="K34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L34" t="s">
+        <v>344</v>
+      </c>
+      <c r="M34" t="s">
+        <v>345</v>
+      </c>
+      <c r="N34" t="s">
         <v>346</v>
       </c>
-      <c r="M34" t="s">
+      <c r="O34" t="s">
         <v>347</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>348</v>
       </c>
-      <c r="O34" t="s">
+      <c r="Q34" t="s">
         <v>349</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>350</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="S34" t="s">
         <v>351</v>
       </c>
-      <c r="R34" t="s">
+      <c r="T34" t="s">
         <v>352</v>
-      </c>
-      <c r="S34" t="s">
-        <v>353</v>
-      </c>
-      <c r="T34" t="s">
-        <v>354</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -6314,55 +6314,55 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F35">
         <v>2015</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H35">
         <v>24</v>
       </c>
       <c r="I35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" t="s">
         <v>32</v>
       </c>
-      <c r="J35" t="s">
-        <v>33</v>
-      </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L35" t="s">
+        <v>354</v>
+      </c>
+      <c r="M35" t="s">
+        <v>355</v>
+      </c>
+      <c r="N35" t="s">
         <v>356</v>
       </c>
-      <c r="M35" t="s">
+      <c r="O35" t="s">
         <v>357</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>358</v>
       </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
         <v>359</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>360</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="S35" t="s">
         <v>361</v>
       </c>
-      <c r="R35" t="s">
+      <c r="T35" t="s">
         <v>362</v>
-      </c>
-      <c r="S35" t="s">
-        <v>363</v>
-      </c>
-      <c r="T35" t="s">
-        <v>364</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -6400,55 +6400,55 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F36">
         <v>2015</v>
       </c>
       <c r="G36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H36">
         <v>25</v>
       </c>
       <c r="I36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" t="s">
         <v>32</v>
       </c>
-      <c r="J36" t="s">
-        <v>33</v>
-      </c>
       <c r="K36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L36" t="s">
+        <v>364</v>
+      </c>
+      <c r="M36" t="s">
+        <v>365</v>
+      </c>
+      <c r="N36" t="s">
         <v>366</v>
       </c>
-      <c r="M36" t="s">
+      <c r="O36" t="s">
         <v>367</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>368</v>
       </c>
-      <c r="O36" t="s">
+      <c r="Q36" t="s">
         <v>369</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>370</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="S36" t="s">
         <v>371</v>
       </c>
-      <c r="R36" t="s">
+      <c r="T36" t="s">
         <v>372</v>
-      </c>
-      <c r="S36" t="s">
-        <v>373</v>
-      </c>
-      <c r="T36" t="s">
-        <v>374</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -6486,55 +6486,55 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37">
         <v>2017</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H37">
         <v>23</v>
       </c>
       <c r="I37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" t="s">
         <v>32</v>
       </c>
-      <c r="J37" t="s">
-        <v>33</v>
-      </c>
       <c r="K37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L37" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M37" t="s">
+        <v>374</v>
+      </c>
+      <c r="N37" t="s">
+        <v>375</v>
+      </c>
+      <c r="O37" t="s">
         <v>376</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>377</v>
       </c>
-      <c r="O37" t="s">
+      <c r="Q37" t="s">
         <v>378</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>379</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="S37" t="s">
         <v>380</v>
       </c>
-      <c r="R37" t="s">
+      <c r="T37" t="s">
         <v>381</v>
-      </c>
-      <c r="S37" t="s">
-        <v>382</v>
-      </c>
-      <c r="T37" t="s">
-        <v>383</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
@@ -6572,55 +6572,55 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38">
         <v>2014</v>
       </c>
       <c r="G38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H38">
         <v>13</v>
       </c>
       <c r="I38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" t="s">
         <v>32</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>33</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>34</v>
       </c>
-      <c r="L38" t="s">
-        <v>35</v>
-      </c>
       <c r="M38" t="s">
+        <v>383</v>
+      </c>
+      <c r="N38" t="s">
+        <v>384</v>
+      </c>
+      <c r="O38" t="s">
         <v>385</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>386</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q38" t="s">
         <v>387</v>
       </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
         <v>388</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="S38" t="s">
         <v>389</v>
       </c>
-      <c r="R38" t="s">
+      <c r="T38" t="s">
         <v>390</v>
-      </c>
-      <c r="S38" t="s">
-        <v>391</v>
-      </c>
-      <c r="T38" t="s">
-        <v>392</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -6658,55 +6658,55 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
+        <v>835</v>
+      </c>
+      <c r="E39" t="s">
         <v>29</v>
-      </c>
-      <c r="E39" t="s">
-        <v>30</v>
       </c>
       <c r="F39">
         <v>2012</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>19</v>
       </c>
       <c r="I39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" t="s">
         <v>32</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>33</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>34</v>
       </c>
-      <c r="L39" t="s">
-        <v>35</v>
-      </c>
       <c r="M39" t="s">
+        <v>392</v>
+      </c>
+      <c r="N39" t="s">
+        <v>393</v>
+      </c>
+      <c r="O39" t="s">
         <v>394</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
         <v>395</v>
       </c>
-      <c r="O39" t="s">
+      <c r="Q39" t="s">
         <v>396</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>397</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="S39" t="s">
         <v>398</v>
       </c>
-      <c r="R39" t="s">
+      <c r="T39" t="s">
         <v>399</v>
-      </c>
-      <c r="S39" t="s">
-        <v>400</v>
-      </c>
-      <c r="T39" t="s">
-        <v>401</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -6744,55 +6744,55 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
+        <v>835</v>
+      </c>
+      <c r="E40" t="s">
         <v>29</v>
-      </c>
-      <c r="E40" t="s">
-        <v>30</v>
       </c>
       <c r="F40">
         <v>2017</v>
       </c>
       <c r="G40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H40">
         <v>12</v>
       </c>
       <c r="I40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" t="s">
         <v>32</v>
       </c>
-      <c r="J40" t="s">
-        <v>33</v>
-      </c>
       <c r="K40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L40" t="s">
+        <v>402</v>
+      </c>
+      <c r="M40" t="s">
+        <v>403</v>
+      </c>
+      <c r="N40" t="s">
         <v>404</v>
       </c>
-      <c r="M40" t="s">
+      <c r="O40" t="s">
         <v>405</v>
       </c>
-      <c r="N40" t="s">
+      <c r="P40" t="s">
         <v>406</v>
       </c>
-      <c r="O40" t="s">
+      <c r="Q40" t="s">
         <v>407</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
         <v>408</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="S40" t="s">
         <v>409</v>
       </c>
-      <c r="R40" t="s">
+      <c r="T40" t="s">
         <v>410</v>
-      </c>
-      <c r="S40" t="s">
-        <v>411</v>
-      </c>
-      <c r="T40" t="s">
-        <v>412</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
@@ -6830,55 +6830,55 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
+        <v>835</v>
+      </c>
+      <c r="E41" t="s">
         <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>30</v>
       </c>
       <c r="F41">
         <v>2016</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H41">
         <v>26</v>
       </c>
       <c r="I41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" t="s">
         <v>32</v>
       </c>
-      <c r="J41" t="s">
-        <v>33</v>
-      </c>
       <c r="K41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L41" t="s">
+        <v>412</v>
+      </c>
+      <c r="M41" t="s">
+        <v>413</v>
+      </c>
+      <c r="N41" t="s">
         <v>414</v>
       </c>
-      <c r="M41" t="s">
+      <c r="O41" t="s">
         <v>415</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
         <v>416</v>
       </c>
-      <c r="O41" t="s">
+      <c r="Q41" t="s">
         <v>417</v>
       </c>
-      <c r="P41" t="s">
+      <c r="R41" t="s">
         <v>418</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="S41" t="s">
         <v>419</v>
       </c>
-      <c r="R41" t="s">
+      <c r="T41" t="s">
         <v>420</v>
-      </c>
-      <c r="S41" t="s">
-        <v>421</v>
-      </c>
-      <c r="T41" t="s">
-        <v>422</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
@@ -6916,55 +6916,55 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42">
         <v>2016</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H42">
         <v>6</v>
       </c>
       <c r="I42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" t="s">
         <v>32</v>
       </c>
-      <c r="J42" t="s">
-        <v>33</v>
-      </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L42" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s">
+        <v>422</v>
+      </c>
+      <c r="N42" t="s">
+        <v>423</v>
+      </c>
+      <c r="O42" t="s">
         <v>424</v>
       </c>
-      <c r="N42" t="s">
+      <c r="P42" t="s">
         <v>425</v>
       </c>
-      <c r="O42" t="s">
+      <c r="Q42" t="s">
         <v>426</v>
       </c>
-      <c r="P42" t="s">
+      <c r="R42" t="s">
         <v>427</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="S42" t="s">
         <v>428</v>
       </c>
-      <c r="R42" t="s">
+      <c r="T42" t="s">
         <v>429</v>
-      </c>
-      <c r="S42" t="s">
-        <v>430</v>
-      </c>
-      <c r="T42" t="s">
-        <v>431</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
@@ -7002,55 +7002,55 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43">
         <v>2015</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H43">
         <v>12</v>
       </c>
       <c r="I43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" t="s">
         <v>32</v>
       </c>
-      <c r="J43" t="s">
-        <v>33</v>
-      </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L43" t="s">
+        <v>431</v>
+      </c>
+      <c r="M43" t="s">
+        <v>432</v>
+      </c>
+      <c r="N43" t="s">
         <v>433</v>
       </c>
-      <c r="M43" t="s">
+      <c r="O43" t="s">
         <v>434</v>
       </c>
-      <c r="N43" t="s">
+      <c r="P43" t="s">
         <v>435</v>
       </c>
-      <c r="O43" t="s">
+      <c r="Q43" t="s">
         <v>436</v>
       </c>
-      <c r="P43" t="s">
+      <c r="R43" t="s">
         <v>437</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="S43" t="s">
         <v>438</v>
       </c>
-      <c r="R43" t="s">
+      <c r="T43" t="s">
         <v>439</v>
-      </c>
-      <c r="S43" t="s">
-        <v>440</v>
-      </c>
-      <c r="T43" t="s">
-        <v>441</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -7088,55 +7088,55 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44">
         <v>2017</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" t="s">
         <v>32</v>
       </c>
-      <c r="J44" t="s">
-        <v>33</v>
-      </c>
       <c r="K44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L44" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M44" t="s">
+        <v>441</v>
+      </c>
+      <c r="N44" t="s">
+        <v>442</v>
+      </c>
+      <c r="O44" t="s">
         <v>443</v>
       </c>
-      <c r="N44" t="s">
+      <c r="P44" t="s">
         <v>444</v>
       </c>
-      <c r="O44" t="s">
+      <c r="Q44" t="s">
         <v>445</v>
       </c>
-      <c r="P44" t="s">
+      <c r="R44" t="s">
         <v>446</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="S44" t="s">
         <v>447</v>
       </c>
-      <c r="R44" t="s">
+      <c r="T44" t="s">
         <v>448</v>
-      </c>
-      <c r="S44" t="s">
-        <v>449</v>
-      </c>
-      <c r="T44" t="s">
-        <v>450</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -7174,55 +7174,55 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45">
         <v>2015</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H45">
         <v>26</v>
       </c>
       <c r="I45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" t="s">
         <v>32</v>
       </c>
-      <c r="J45" t="s">
-        <v>33</v>
-      </c>
       <c r="K45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L45" t="s">
+        <v>450</v>
+      </c>
+      <c r="M45" t="s">
+        <v>451</v>
+      </c>
+      <c r="N45" t="s">
         <v>452</v>
       </c>
-      <c r="M45" t="s">
+      <c r="O45" t="s">
         <v>453</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>454</v>
       </c>
-      <c r="O45" t="s">
+      <c r="Q45" t="s">
         <v>455</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>456</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="S45" t="s">
         <v>457</v>
       </c>
-      <c r="R45" t="s">
+      <c r="T45" t="s">
         <v>458</v>
-      </c>
-      <c r="S45" t="s">
-        <v>459</v>
-      </c>
-      <c r="T45" t="s">
-        <v>460</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
@@ -7260,55 +7260,55 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46">
         <v>2017</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" t="s">
         <v>32</v>
       </c>
-      <c r="J46" t="s">
-        <v>33</v>
-      </c>
       <c r="K46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L46" t="s">
+        <v>460</v>
+      </c>
+      <c r="M46" t="s">
+        <v>461</v>
+      </c>
+      <c r="N46" t="s">
         <v>462</v>
       </c>
-      <c r="M46" t="s">
+      <c r="O46" t="s">
         <v>463</v>
       </c>
-      <c r="N46" t="s">
+      <c r="P46" t="s">
         <v>464</v>
       </c>
-      <c r="O46" t="s">
+      <c r="Q46" t="s">
         <v>465</v>
       </c>
-      <c r="P46" t="s">
+      <c r="R46" t="s">
         <v>466</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="S46" t="s">
         <v>467</v>
       </c>
-      <c r="R46" t="s">
+      <c r="T46" t="s">
         <v>468</v>
-      </c>
-      <c r="S46" t="s">
-        <v>469</v>
-      </c>
-      <c r="T46" t="s">
-        <v>470</v>
       </c>
       <c r="U46">
         <v>1</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
@@ -7346,55 +7346,55 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47">
         <v>2015</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" t="s">
         <v>32</v>
       </c>
-      <c r="J47" t="s">
-        <v>33</v>
-      </c>
       <c r="K47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M47" t="s">
+        <v>470</v>
+      </c>
+      <c r="N47" t="s">
+        <v>471</v>
+      </c>
+      <c r="O47" t="s">
         <v>472</v>
       </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
         <v>473</v>
       </c>
-      <c r="O47" t="s">
+      <c r="Q47" t="s">
         <v>474</v>
       </c>
-      <c r="P47" t="s">
+      <c r="R47" t="s">
         <v>475</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="S47" t="s">
         <v>476</v>
       </c>
-      <c r="R47" t="s">
+      <c r="T47" t="s">
         <v>477</v>
-      </c>
-      <c r="S47" t="s">
-        <v>478</v>
-      </c>
-      <c r="T47" t="s">
-        <v>479</v>
       </c>
       <c r="U47">
         <v>1</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
@@ -7432,55 +7432,55 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
+        <v>835</v>
+      </c>
+      <c r="E48" t="s">
         <v>29</v>
-      </c>
-      <c r="E48" t="s">
-        <v>30</v>
       </c>
       <c r="F48">
         <v>2016</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H48">
         <v>24</v>
       </c>
       <c r="I48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" t="s">
         <v>32</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>33</v>
       </c>
-      <c r="K48" t="s">
-        <v>34</v>
-      </c>
       <c r="L48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M48" t="s">
+        <v>479</v>
+      </c>
+      <c r="N48" t="s">
+        <v>480</v>
+      </c>
+      <c r="O48" t="s">
         <v>481</v>
       </c>
-      <c r="N48" t="s">
+      <c r="P48" t="s">
         <v>482</v>
       </c>
-      <c r="O48" t="s">
+      <c r="Q48" t="s">
         <v>483</v>
       </c>
-      <c r="P48" t="s">
+      <c r="R48" t="s">
         <v>484</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="S48" t="s">
         <v>485</v>
       </c>
-      <c r="R48" t="s">
+      <c r="T48" t="s">
         <v>486</v>
-      </c>
-      <c r="S48" t="s">
-        <v>487</v>
-      </c>
-      <c r="T48" t="s">
-        <v>488</v>
       </c>
       <c r="U48">
         <v>1</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -7518,55 +7518,55 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
+        <v>835</v>
+      </c>
+      <c r="E49" t="s">
         <v>29</v>
-      </c>
-      <c r="E49" t="s">
-        <v>30</v>
       </c>
       <c r="F49">
         <v>2012</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>14</v>
       </c>
       <c r="I49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" t="s">
         <v>32</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>33</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>34</v>
       </c>
-      <c r="L49" t="s">
-        <v>35</v>
-      </c>
       <c r="M49" t="s">
+        <v>488</v>
+      </c>
+      <c r="N49" t="s">
+        <v>489</v>
+      </c>
+      <c r="O49" t="s">
         <v>490</v>
       </c>
-      <c r="N49" t="s">
+      <c r="P49" t="s">
         <v>491</v>
       </c>
-      <c r="O49" t="s">
+      <c r="Q49" t="s">
         <v>492</v>
       </c>
-      <c r="P49" t="s">
+      <c r="R49" t="s">
         <v>493</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="S49" t="s">
         <v>494</v>
       </c>
-      <c r="R49" t="s">
+      <c r="T49" t="s">
         <v>495</v>
-      </c>
-      <c r="S49" t="s">
-        <v>496</v>
-      </c>
-      <c r="T49" t="s">
-        <v>497</v>
       </c>
       <c r="U49">
         <v>1</v>
@@ -7595,7 +7595,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -7604,55 +7604,55 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
+        <v>835</v>
+      </c>
+      <c r="E50" t="s">
         <v>29</v>
-      </c>
-      <c r="E50" t="s">
-        <v>30</v>
       </c>
       <c r="F50">
         <v>2012</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>7</v>
       </c>
       <c r="I50" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" t="s">
         <v>32</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>33</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>34</v>
       </c>
-      <c r="L50" t="s">
-        <v>35</v>
-      </c>
       <c r="M50" t="s">
+        <v>497</v>
+      </c>
+      <c r="N50" t="s">
+        <v>498</v>
+      </c>
+      <c r="O50" t="s">
         <v>499</v>
       </c>
-      <c r="N50" t="s">
+      <c r="P50" t="s">
         <v>500</v>
       </c>
-      <c r="O50" t="s">
+      <c r="Q50" t="s">
         <v>501</v>
       </c>
-      <c r="P50" t="s">
+      <c r="R50" t="s">
         <v>502</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="S50" t="s">
         <v>503</v>
       </c>
-      <c r="R50" t="s">
+      <c r="T50" t="s">
         <v>504</v>
-      </c>
-      <c r="S50" t="s">
-        <v>505</v>
-      </c>
-      <c r="T50" t="s">
-        <v>506</v>
       </c>
       <c r="U50">
         <v>1</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -7690,55 +7690,55 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
+        <v>835</v>
+      </c>
+      <c r="E51" t="s">
         <v>29</v>
-      </c>
-      <c r="E51" t="s">
-        <v>30</v>
       </c>
       <c r="F51">
         <v>2016</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H51">
         <v>28</v>
       </c>
       <c r="I51" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" t="s">
         <v>32</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>33</v>
       </c>
-      <c r="K51" t="s">
-        <v>34</v>
-      </c>
       <c r="L51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M51" t="s">
+        <v>506</v>
+      </c>
+      <c r="N51" t="s">
+        <v>507</v>
+      </c>
+      <c r="O51" t="s">
         <v>508</v>
       </c>
-      <c r="N51" t="s">
+      <c r="P51" t="s">
         <v>509</v>
       </c>
-      <c r="O51" t="s">
+      <c r="Q51" t="s">
         <v>510</v>
       </c>
-      <c r="P51" t="s">
+      <c r="R51" t="s">
         <v>511</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="S51" t="s">
         <v>512</v>
       </c>
-      <c r="R51" t="s">
+      <c r="T51" t="s">
         <v>513</v>
-      </c>
-      <c r="S51" t="s">
-        <v>514</v>
-      </c>
-      <c r="T51" t="s">
-        <v>515</v>
       </c>
       <c r="U51">
         <v>1</v>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -7776,55 +7776,55 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
+        <v>835</v>
+      </c>
+      <c r="E52" t="s">
         <v>29</v>
-      </c>
-      <c r="E52" t="s">
-        <v>30</v>
       </c>
       <c r="F52">
         <v>2016</v>
       </c>
       <c r="G52" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" t="s">
         <v>32</v>
       </c>
-      <c r="J52" t="s">
-        <v>33</v>
-      </c>
       <c r="K52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M52" t="s">
+        <v>515</v>
+      </c>
+      <c r="N52" t="s">
+        <v>516</v>
+      </c>
+      <c r="O52" t="s">
         <v>517</v>
       </c>
-      <c r="N52" t="s">
+      <c r="P52" t="s">
         <v>518</v>
       </c>
-      <c r="O52" t="s">
+      <c r="Q52" t="s">
         <v>519</v>
       </c>
-      <c r="P52" t="s">
+      <c r="R52" t="s">
         <v>520</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="S52" t="s">
         <v>521</v>
       </c>
-      <c r="R52" t="s">
+      <c r="T52" t="s">
         <v>522</v>
-      </c>
-      <c r="S52" t="s">
-        <v>523</v>
-      </c>
-      <c r="T52" t="s">
-        <v>524</v>
       </c>
       <c r="U52">
         <v>1</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
@@ -7862,55 +7862,55 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F53">
         <v>2016</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H53">
         <v>9</v>
       </c>
       <c r="I53" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" t="s">
         <v>32</v>
       </c>
-      <c r="J53" t="s">
-        <v>33</v>
-      </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L53" t="s">
+        <v>524</v>
+      </c>
+      <c r="M53" t="s">
+        <v>525</v>
+      </c>
+      <c r="N53" t="s">
         <v>526</v>
       </c>
-      <c r="M53" t="s">
+      <c r="O53" t="s">
         <v>527</v>
       </c>
-      <c r="N53" t="s">
+      <c r="P53" t="s">
         <v>528</v>
       </c>
-      <c r="O53" t="s">
+      <c r="Q53" t="s">
         <v>529</v>
       </c>
-      <c r="P53" t="s">
+      <c r="R53" t="s">
         <v>530</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="S53" t="s">
         <v>531</v>
       </c>
-      <c r="R53" t="s">
+      <c r="T53" t="s">
         <v>532</v>
-      </c>
-      <c r="S53" t="s">
-        <v>533</v>
-      </c>
-      <c r="T53" t="s">
-        <v>534</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -7948,55 +7948,55 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
+        <v>835</v>
+      </c>
+      <c r="E54" t="s">
         <v>29</v>
-      </c>
-      <c r="E54" t="s">
-        <v>30</v>
       </c>
       <c r="F54">
         <v>2016</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H54">
         <v>21</v>
       </c>
       <c r="I54" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" t="s">
         <v>32</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>33</v>
       </c>
-      <c r="K54" t="s">
-        <v>34</v>
-      </c>
       <c r="L54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M54" t="s">
+        <v>534</v>
+      </c>
+      <c r="N54" t="s">
+        <v>535</v>
+      </c>
+      <c r="O54" t="s">
         <v>536</v>
       </c>
-      <c r="N54" t="s">
+      <c r="P54" t="s">
         <v>537</v>
       </c>
-      <c r="O54" t="s">
+      <c r="Q54" t="s">
         <v>538</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>539</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="S54" t="s">
         <v>540</v>
       </c>
-      <c r="R54" t="s">
+      <c r="T54" t="s">
         <v>541</v>
-      </c>
-      <c r="S54" t="s">
-        <v>542</v>
-      </c>
-      <c r="T54" t="s">
-        <v>543</v>
       </c>
       <c r="U54">
         <v>1</v>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
@@ -8034,55 +8034,55 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
+        <v>835</v>
+      </c>
+      <c r="E55" t="s">
         <v>29</v>
-      </c>
-      <c r="E55" t="s">
-        <v>30</v>
       </c>
       <c r="F55">
         <v>2016</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H55">
         <v>19</v>
       </c>
       <c r="I55" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" t="s">
         <v>32</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>33</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>34</v>
       </c>
-      <c r="L55" t="s">
-        <v>35</v>
-      </c>
       <c r="M55" t="s">
+        <v>543</v>
+      </c>
+      <c r="N55" t="s">
+        <v>544</v>
+      </c>
+      <c r="O55" t="s">
         <v>545</v>
       </c>
-      <c r="N55" t="s">
+      <c r="P55" t="s">
         <v>546</v>
       </c>
-      <c r="O55" t="s">
+      <c r="Q55" t="s">
         <v>547</v>
       </c>
-      <c r="P55" t="s">
+      <c r="R55" t="s">
         <v>548</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="S55" t="s">
         <v>549</v>
       </c>
-      <c r="R55" t="s">
+      <c r="T55" t="s">
         <v>550</v>
-      </c>
-      <c r="S55" t="s">
-        <v>551</v>
-      </c>
-      <c r="T55" t="s">
-        <v>552</v>
       </c>
       <c r="U55">
         <v>1</v>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -8120,55 +8120,55 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F56">
         <v>2016</v>
       </c>
       <c r="G56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H56">
         <v>9</v>
       </c>
       <c r="I56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" t="s">
         <v>32</v>
       </c>
-      <c r="J56" t="s">
-        <v>33</v>
-      </c>
       <c r="K56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L56" t="s">
+        <v>552</v>
+      </c>
+      <c r="M56" t="s">
+        <v>553</v>
+      </c>
+      <c r="N56" t="s">
         <v>554</v>
       </c>
-      <c r="M56" t="s">
+      <c r="O56" t="s">
         <v>555</v>
       </c>
-      <c r="N56" t="s">
+      <c r="P56" t="s">
         <v>556</v>
       </c>
-      <c r="O56" t="s">
+      <c r="Q56" t="s">
         <v>557</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
         <v>558</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="S56" t="s">
         <v>559</v>
       </c>
-      <c r="R56" t="s">
+      <c r="T56" t="s">
         <v>560</v>
-      </c>
-      <c r="S56" t="s">
-        <v>561</v>
-      </c>
-      <c r="T56" t="s">
-        <v>562</v>
       </c>
       <c r="U56">
         <v>1</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -8206,55 +8206,55 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
+        <v>835</v>
+      </c>
+      <c r="E57" t="s">
         <v>29</v>
-      </c>
-      <c r="E57" t="s">
-        <v>30</v>
       </c>
       <c r="F57">
         <v>2016</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H57">
         <v>21</v>
       </c>
       <c r="I57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" t="s">
         <v>32</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>33</v>
       </c>
-      <c r="K57" t="s">
-        <v>34</v>
-      </c>
       <c r="L57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M57" t="s">
+        <v>562</v>
+      </c>
+      <c r="N57" t="s">
+        <v>563</v>
+      </c>
+      <c r="O57" t="s">
         <v>564</v>
       </c>
-      <c r="N57" t="s">
+      <c r="P57" t="s">
         <v>565</v>
       </c>
-      <c r="O57" t="s">
+      <c r="Q57" t="s">
         <v>566</v>
       </c>
-      <c r="P57" t="s">
+      <c r="R57" t="s">
         <v>567</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="S57" t="s">
         <v>568</v>
       </c>
-      <c r="R57" t="s">
+      <c r="T57" t="s">
         <v>569</v>
-      </c>
-      <c r="S57" t="s">
-        <v>570</v>
-      </c>
-      <c r="T57" t="s">
-        <v>571</v>
       </c>
       <c r="U57">
         <v>1</v>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -8292,55 +8292,55 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F58">
         <v>2014</v>
       </c>
       <c r="G58" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H58">
         <v>31</v>
       </c>
       <c r="I58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" t="s">
         <v>32</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>33</v>
       </c>
-      <c r="K58" t="s">
-        <v>34</v>
-      </c>
       <c r="L58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M58" t="s">
+        <v>572</v>
+      </c>
+      <c r="N58" t="s">
+        <v>573</v>
+      </c>
+      <c r="O58" t="s">
         <v>574</v>
       </c>
-      <c r="N58" t="s">
+      <c r="P58" t="s">
         <v>575</v>
       </c>
-      <c r="O58" t="s">
+      <c r="Q58" t="s">
         <v>576</v>
       </c>
-      <c r="P58" t="s">
+      <c r="R58" t="s">
         <v>577</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="S58" t="s">
         <v>578</v>
       </c>
-      <c r="R58" t="s">
+      <c r="T58" t="s">
         <v>579</v>
-      </c>
-      <c r="S58" t="s">
-        <v>580</v>
-      </c>
-      <c r="T58" t="s">
-        <v>581</v>
       </c>
       <c r="U58">
         <v>1</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -8378,55 +8378,55 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F59">
         <v>2017</v>
       </c>
       <c r="G59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H59">
         <v>25</v>
       </c>
       <c r="I59" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" t="s">
         <v>32</v>
       </c>
-      <c r="J59" t="s">
-        <v>33</v>
-      </c>
       <c r="K59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L59" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M59" t="s">
+        <v>581</v>
+      </c>
+      <c r="N59" t="s">
+        <v>582</v>
+      </c>
+      <c r="O59" t="s">
         <v>583</v>
       </c>
-      <c r="N59" t="s">
+      <c r="P59" t="s">
         <v>584</v>
       </c>
-      <c r="O59" t="s">
+      <c r="Q59" t="s">
         <v>585</v>
       </c>
-      <c r="P59" t="s">
+      <c r="R59" t="s">
         <v>586</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="S59" t="s">
         <v>587</v>
       </c>
-      <c r="R59" t="s">
+      <c r="T59" t="s">
         <v>588</v>
-      </c>
-      <c r="S59" t="s">
-        <v>589</v>
-      </c>
-      <c r="T59" t="s">
-        <v>590</v>
       </c>
       <c r="U59">
         <v>1</v>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
@@ -8464,55 +8464,55 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F60">
         <v>2017</v>
       </c>
       <c r="G60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H60">
         <v>8</v>
       </c>
       <c r="I60" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" t="s">
         <v>32</v>
       </c>
-      <c r="J60" t="s">
-        <v>33</v>
-      </c>
       <c r="K60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L60" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M60" t="s">
+        <v>590</v>
+      </c>
+      <c r="N60" t="s">
+        <v>591</v>
+      </c>
+      <c r="O60" t="s">
         <v>592</v>
       </c>
-      <c r="N60" t="s">
+      <c r="P60" t="s">
         <v>593</v>
       </c>
-      <c r="O60" t="s">
+      <c r="Q60" t="s">
         <v>594</v>
       </c>
-      <c r="P60" t="s">
+      <c r="R60" t="s">
         <v>595</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="S60" t="s">
         <v>596</v>
       </c>
-      <c r="R60" t="s">
+      <c r="T60" t="s">
         <v>597</v>
-      </c>
-      <c r="S60" t="s">
-        <v>598</v>
-      </c>
-      <c r="T60" t="s">
-        <v>599</v>
       </c>
       <c r="U60">
         <v>1</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -8550,55 +8550,55 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
+        <v>835</v>
+      </c>
+      <c r="E61" t="s">
         <v>29</v>
-      </c>
-      <c r="E61" t="s">
-        <v>30</v>
       </c>
       <c r="F61">
         <v>2016</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H61">
         <v>17</v>
       </c>
       <c r="I61" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" t="s">
         <v>32</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>33</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>34</v>
       </c>
-      <c r="L61" t="s">
-        <v>35</v>
-      </c>
       <c r="M61" t="s">
+        <v>599</v>
+      </c>
+      <c r="N61" t="s">
+        <v>600</v>
+      </c>
+      <c r="O61" t="s">
         <v>601</v>
       </c>
-      <c r="N61" t="s">
+      <c r="P61" t="s">
         <v>602</v>
       </c>
-      <c r="O61" t="s">
+      <c r="Q61" t="s">
         <v>603</v>
       </c>
-      <c r="P61" t="s">
+      <c r="R61" t="s">
         <v>604</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="S61" t="s">
         <v>605</v>
       </c>
-      <c r="R61" t="s">
+      <c r="T61" t="s">
         <v>606</v>
-      </c>
-      <c r="S61" t="s">
-        <v>607</v>
-      </c>
-      <c r="T61" t="s">
-        <v>608</v>
       </c>
       <c r="U61">
         <v>1</v>
@@ -8627,7 +8627,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -8636,55 +8636,55 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F62">
         <v>2017</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H62">
         <v>5</v>
       </c>
       <c r="I62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" t="s">
         <v>32</v>
       </c>
-      <c r="J62" t="s">
-        <v>33</v>
-      </c>
       <c r="K62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L62" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M62" t="s">
+        <v>608</v>
+      </c>
+      <c r="N62" t="s">
+        <v>609</v>
+      </c>
+      <c r="O62" t="s">
         <v>610</v>
       </c>
-      <c r="N62" t="s">
+      <c r="P62" t="s">
         <v>611</v>
       </c>
-      <c r="O62" t="s">
+      <c r="Q62" t="s">
         <v>612</v>
       </c>
-      <c r="P62" t="s">
+      <c r="R62" t="s">
         <v>613</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="S62" t="s">
         <v>614</v>
       </c>
-      <c r="R62" t="s">
+      <c r="T62" t="s">
         <v>615</v>
-      </c>
-      <c r="S62" t="s">
-        <v>616</v>
-      </c>
-      <c r="T62" t="s">
-        <v>617</v>
       </c>
       <c r="U62">
         <v>1</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -8722,55 +8722,55 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
+        <v>835</v>
+      </c>
+      <c r="E63" t="s">
         <v>29</v>
-      </c>
-      <c r="E63" t="s">
-        <v>30</v>
       </c>
       <c r="F63">
         <v>2012</v>
       </c>
       <c r="G63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H63">
         <v>13</v>
       </c>
       <c r="I63" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" t="s">
         <v>32</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>33</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>34</v>
       </c>
-      <c r="L63" t="s">
-        <v>35</v>
-      </c>
       <c r="M63" t="s">
+        <v>617</v>
+      </c>
+      <c r="N63" t="s">
+        <v>618</v>
+      </c>
+      <c r="O63" t="s">
         <v>619</v>
       </c>
-      <c r="N63" t="s">
+      <c r="P63" t="s">
         <v>620</v>
       </c>
-      <c r="O63" t="s">
+      <c r="Q63" t="s">
         <v>621</v>
       </c>
-      <c r="P63" t="s">
+      <c r="R63" t="s">
         <v>622</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="S63" t="s">
         <v>623</v>
       </c>
-      <c r="R63" t="s">
+      <c r="T63" t="s">
         <v>624</v>
-      </c>
-      <c r="S63" t="s">
-        <v>625</v>
-      </c>
-      <c r="T63" t="s">
-        <v>626</v>
       </c>
       <c r="U63">
         <v>1</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -8808,55 +8808,55 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F64">
         <v>2016</v>
       </c>
       <c r="G64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H64">
         <v>14</v>
       </c>
       <c r="I64" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" t="s">
         <v>32</v>
       </c>
-      <c r="J64" t="s">
-        <v>33</v>
-      </c>
       <c r="K64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M64" t="s">
+        <v>626</v>
+      </c>
+      <c r="N64" t="s">
+        <v>627</v>
+      </c>
+      <c r="O64" t="s">
         <v>628</v>
       </c>
-      <c r="N64" t="s">
+      <c r="P64" t="s">
         <v>629</v>
       </c>
-      <c r="O64" t="s">
+      <c r="Q64" t="s">
         <v>630</v>
       </c>
-      <c r="P64" t="s">
+      <c r="R64" t="s">
         <v>631</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="S64" t="s">
         <v>632</v>
       </c>
-      <c r="R64" t="s">
+      <c r="T64" t="s">
         <v>633</v>
-      </c>
-      <c r="S64" t="s">
-        <v>634</v>
-      </c>
-      <c r="T64" t="s">
-        <v>635</v>
       </c>
       <c r="U64">
         <v>1</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
@@ -8894,55 +8894,55 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
+        <v>835</v>
+      </c>
+      <c r="E65" t="s">
         <v>29</v>
-      </c>
-      <c r="E65" t="s">
-        <v>30</v>
       </c>
       <c r="F65">
         <v>2017</v>
       </c>
       <c r="G65" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H65">
         <v>14</v>
       </c>
       <c r="I65" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" t="s">
         <v>32</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>33</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>34</v>
       </c>
-      <c r="L65" t="s">
-        <v>35</v>
-      </c>
       <c r="M65" t="s">
+        <v>635</v>
+      </c>
+      <c r="N65" t="s">
+        <v>636</v>
+      </c>
+      <c r="O65" t="s">
         <v>637</v>
       </c>
-      <c r="N65" t="s">
+      <c r="P65" t="s">
         <v>638</v>
       </c>
-      <c r="O65" t="s">
+      <c r="Q65" t="s">
         <v>639</v>
       </c>
-      <c r="P65" t="s">
+      <c r="R65" t="s">
         <v>640</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="S65" t="s">
         <v>641</v>
       </c>
-      <c r="R65" t="s">
+      <c r="T65" t="s">
         <v>642</v>
-      </c>
-      <c r="S65" t="s">
-        <v>643</v>
-      </c>
-      <c r="T65" t="s">
-        <v>644</v>
       </c>
       <c r="U65">
         <v>1</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
@@ -8980,55 +8980,55 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
+        <v>835</v>
+      </c>
+      <c r="E66" t="s">
         <v>29</v>
-      </c>
-      <c r="E66" t="s">
-        <v>30</v>
       </c>
       <c r="F66">
         <v>2016</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>14</v>
       </c>
       <c r="I66" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66" t="s">
         <v>32</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>33</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>34</v>
       </c>
-      <c r="L66" t="s">
-        <v>35</v>
-      </c>
       <c r="M66" t="s">
+        <v>644</v>
+      </c>
+      <c r="N66" t="s">
+        <v>645</v>
+      </c>
+      <c r="O66" t="s">
         <v>646</v>
       </c>
-      <c r="N66" t="s">
+      <c r="P66" t="s">
         <v>647</v>
       </c>
-      <c r="O66" t="s">
+      <c r="Q66" t="s">
         <v>648</v>
       </c>
-      <c r="P66" t="s">
+      <c r="R66" t="s">
         <v>649</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="S66" t="s">
         <v>650</v>
       </c>
-      <c r="R66" t="s">
+      <c r="T66" t="s">
         <v>651</v>
-      </c>
-      <c r="S66" t="s">
-        <v>652</v>
-      </c>
-      <c r="T66" t="s">
-        <v>653</v>
       </c>
       <c r="U66">
         <v>1</v>
@@ -9057,7 +9057,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
@@ -9066,55 +9066,55 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F67">
         <v>2016</v>
       </c>
       <c r="G67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H67">
         <v>19</v>
       </c>
       <c r="I67" t="s">
+        <v>31</v>
+      </c>
+      <c r="J67" t="s">
         <v>32</v>
       </c>
-      <c r="J67" t="s">
-        <v>33</v>
-      </c>
       <c r="K67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L67" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M67" t="s">
+        <v>653</v>
+      </c>
+      <c r="N67" t="s">
+        <v>654</v>
+      </c>
+      <c r="O67" t="s">
         <v>655</v>
       </c>
-      <c r="N67" t="s">
+      <c r="P67" t="s">
         <v>656</v>
       </c>
-      <c r="O67" t="s">
+      <c r="Q67" t="s">
         <v>657</v>
       </c>
-      <c r="P67" t="s">
+      <c r="R67" t="s">
         <v>658</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="S67" t="s">
         <v>659</v>
       </c>
-      <c r="R67" t="s">
+      <c r="T67" t="s">
         <v>660</v>
-      </c>
-      <c r="S67" t="s">
-        <v>661</v>
-      </c>
-      <c r="T67" t="s">
-        <v>662</v>
       </c>
       <c r="U67">
         <v>1</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -9152,55 +9152,55 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F68">
         <v>2000</v>
       </c>
       <c r="G68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" t="s">
         <v>32</v>
       </c>
-      <c r="J68" t="s">
-        <v>33</v>
-      </c>
       <c r="K68" t="s">
+        <v>662</v>
+      </c>
+      <c r="L68" t="s">
+        <v>58</v>
+      </c>
+      <c r="M68" t="s">
+        <v>663</v>
+      </c>
+      <c r="N68" t="s">
         <v>664</v>
       </c>
-      <c r="L68" t="s">
-        <v>60</v>
-      </c>
-      <c r="M68" t="s">
+      <c r="O68" t="s">
         <v>665</v>
       </c>
-      <c r="N68" t="s">
+      <c r="P68" t="s">
         <v>666</v>
       </c>
-      <c r="O68" t="s">
+      <c r="Q68" t="s">
         <v>667</v>
       </c>
-      <c r="P68" t="s">
+      <c r="R68" t="s">
         <v>668</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="S68" t="s">
         <v>669</v>
       </c>
-      <c r="R68" t="s">
+      <c r="T68" t="s">
         <v>670</v>
-      </c>
-      <c r="S68" t="s">
-        <v>671</v>
-      </c>
-      <c r="T68" t="s">
-        <v>672</v>
       </c>
       <c r="U68">
         <v>1</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -9238,55 +9238,55 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F69">
         <v>2016</v>
       </c>
       <c r="G69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H69">
         <v>26</v>
       </c>
       <c r="I69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" t="s">
         <v>32</v>
       </c>
-      <c r="J69" t="s">
-        <v>33</v>
-      </c>
       <c r="K69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L69" t="s">
+        <v>672</v>
+      </c>
+      <c r="M69" t="s">
+        <v>673</v>
+      </c>
+      <c r="N69" t="s">
         <v>674</v>
       </c>
-      <c r="M69" t="s">
+      <c r="O69" t="s">
         <v>675</v>
       </c>
-      <c r="N69" t="s">
+      <c r="P69" t="s">
         <v>676</v>
       </c>
-      <c r="O69" t="s">
+      <c r="Q69" t="s">
         <v>677</v>
       </c>
-      <c r="P69" t="s">
+      <c r="R69" t="s">
         <v>678</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="S69" t="s">
         <v>679</v>
       </c>
-      <c r="R69" t="s">
+      <c r="T69" t="s">
         <v>680</v>
-      </c>
-      <c r="S69" t="s">
-        <v>681</v>
-      </c>
-      <c r="T69" t="s">
-        <v>682</v>
       </c>
       <c r="U69">
         <v>1</v>
@@ -9315,7 +9315,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -9324,55 +9324,55 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
+        <v>835</v>
+      </c>
+      <c r="E70" t="s">
         <v>29</v>
-      </c>
-      <c r="E70" t="s">
-        <v>30</v>
       </c>
       <c r="F70">
         <v>2012</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>12</v>
       </c>
       <c r="I70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" t="s">
         <v>32</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>33</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>34</v>
       </c>
-      <c r="L70" t="s">
-        <v>35</v>
-      </c>
       <c r="M70" t="s">
+        <v>682</v>
+      </c>
+      <c r="N70" t="s">
+        <v>683</v>
+      </c>
+      <c r="O70" t="s">
         <v>684</v>
       </c>
-      <c r="N70" t="s">
+      <c r="P70" t="s">
         <v>685</v>
       </c>
-      <c r="O70" t="s">
+      <c r="Q70" t="s">
         <v>686</v>
       </c>
-      <c r="P70" t="s">
+      <c r="R70" t="s">
         <v>687</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="S70" t="s">
         <v>688</v>
       </c>
-      <c r="R70" t="s">
+      <c r="T70" t="s">
         <v>689</v>
-      </c>
-      <c r="S70" t="s">
-        <v>690</v>
-      </c>
-      <c r="T70" t="s">
-        <v>691</v>
       </c>
       <c r="U70">
         <v>1</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -9410,55 +9410,55 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F71">
         <v>2014</v>
       </c>
       <c r="G71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H71">
         <v>4</v>
       </c>
       <c r="I71" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" t="s">
         <v>32</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>33</v>
       </c>
-      <c r="K71" t="s">
-        <v>34</v>
-      </c>
       <c r="L71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M71" t="s">
+        <v>691</v>
+      </c>
+      <c r="N71" t="s">
+        <v>692</v>
+      </c>
+      <c r="O71" t="s">
         <v>693</v>
       </c>
-      <c r="N71" t="s">
+      <c r="P71" t="s">
         <v>694</v>
       </c>
-      <c r="O71" t="s">
+      <c r="Q71" t="s">
         <v>695</v>
       </c>
-      <c r="P71" t="s">
+      <c r="R71" t="s">
         <v>696</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="S71" t="s">
         <v>697</v>
       </c>
-      <c r="R71" t="s">
+      <c r="T71" t="s">
         <v>698</v>
-      </c>
-      <c r="S71" t="s">
-        <v>699</v>
-      </c>
-      <c r="T71" t="s">
-        <v>700</v>
       </c>
       <c r="U71">
         <v>1</v>
@@ -9487,7 +9487,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
@@ -9496,55 +9496,55 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F72">
         <v>2015</v>
       </c>
       <c r="G72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H72">
         <v>4</v>
       </c>
       <c r="I72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" t="s">
         <v>32</v>
       </c>
-      <c r="J72" t="s">
-        <v>33</v>
-      </c>
       <c r="K72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L72" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M72" t="s">
+        <v>700</v>
+      </c>
+      <c r="N72" t="s">
+        <v>701</v>
+      </c>
+      <c r="O72" t="s">
         <v>702</v>
       </c>
-      <c r="N72" t="s">
+      <c r="P72" t="s">
         <v>703</v>
       </c>
-      <c r="O72" t="s">
+      <c r="Q72" t="s">
         <v>704</v>
       </c>
-      <c r="P72" t="s">
+      <c r="R72" t="s">
         <v>705</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="S72" t="s">
         <v>706</v>
       </c>
-      <c r="R72" t="s">
+      <c r="T72" t="s">
         <v>707</v>
-      </c>
-      <c r="S72" t="s">
-        <v>708</v>
-      </c>
-      <c r="T72" t="s">
-        <v>709</v>
       </c>
       <c r="U72">
         <v>1</v>
@@ -9573,7 +9573,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -9582,55 +9582,55 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
+        <v>835</v>
+      </c>
+      <c r="E73" t="s">
         <v>29</v>
-      </c>
-      <c r="E73" t="s">
-        <v>30</v>
       </c>
       <c r="F73">
         <v>2012</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>20</v>
       </c>
       <c r="I73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" t="s">
         <v>32</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>33</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>34</v>
       </c>
-      <c r="L73" t="s">
-        <v>35</v>
-      </c>
       <c r="M73" t="s">
+        <v>709</v>
+      </c>
+      <c r="N73" t="s">
+        <v>710</v>
+      </c>
+      <c r="O73" t="s">
         <v>711</v>
       </c>
-      <c r="N73" t="s">
+      <c r="P73" t="s">
         <v>712</v>
       </c>
-      <c r="O73" t="s">
+      <c r="Q73" t="s">
         <v>713</v>
       </c>
-      <c r="P73" t="s">
+      <c r="R73" t="s">
         <v>714</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="S73" t="s">
         <v>715</v>
       </c>
-      <c r="R73" t="s">
+      <c r="T73" t="s">
         <v>716</v>
-      </c>
-      <c r="S73" t="s">
-        <v>717</v>
-      </c>
-      <c r="T73" t="s">
-        <v>718</v>
       </c>
       <c r="U73">
         <v>1</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -9668,55 +9668,55 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
+        <v>835</v>
+      </c>
+      <c r="E74" t="s">
         <v>29</v>
-      </c>
-      <c r="E74" t="s">
-        <v>30</v>
       </c>
       <c r="F74">
         <v>2012</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>10</v>
       </c>
       <c r="I74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
         <v>32</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>33</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>34</v>
       </c>
-      <c r="L74" t="s">
-        <v>35</v>
-      </c>
       <c r="M74" t="s">
+        <v>718</v>
+      </c>
+      <c r="N74" t="s">
+        <v>719</v>
+      </c>
+      <c r="O74" t="s">
         <v>720</v>
       </c>
-      <c r="N74" t="s">
+      <c r="P74" t="s">
         <v>721</v>
       </c>
-      <c r="O74" t="s">
+      <c r="Q74" t="s">
         <v>722</v>
       </c>
-      <c r="P74" t="s">
+      <c r="R74" t="s">
         <v>723</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="S74" t="s">
         <v>724</v>
       </c>
-      <c r="R74" t="s">
+      <c r="T74" t="s">
         <v>725</v>
-      </c>
-      <c r="S74" t="s">
-        <v>726</v>
-      </c>
-      <c r="T74" t="s">
-        <v>727</v>
       </c>
       <c r="U74">
         <v>1</v>
@@ -9745,7 +9745,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
@@ -9754,55 +9754,55 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
+        <v>835</v>
+      </c>
+      <c r="E75" t="s">
         <v>29</v>
-      </c>
-      <c r="E75" t="s">
-        <v>30</v>
       </c>
       <c r="F75">
         <v>2017</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H75">
         <v>9</v>
       </c>
       <c r="I75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" t="s">
         <v>32</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>33</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>34</v>
       </c>
-      <c r="L75" t="s">
-        <v>35</v>
-      </c>
       <c r="M75" t="s">
+        <v>727</v>
+      </c>
+      <c r="N75" t="s">
+        <v>728</v>
+      </c>
+      <c r="O75" t="s">
         <v>729</v>
       </c>
-      <c r="N75" t="s">
+      <c r="P75" t="s">
         <v>730</v>
       </c>
-      <c r="O75" t="s">
+      <c r="Q75" t="s">
         <v>731</v>
       </c>
-      <c r="P75" t="s">
+      <c r="R75" t="s">
         <v>732</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="S75" t="s">
         <v>733</v>
       </c>
-      <c r="R75" t="s">
+      <c r="T75" t="s">
         <v>734</v>
-      </c>
-      <c r="S75" t="s">
-        <v>735</v>
-      </c>
-      <c r="T75" t="s">
-        <v>736</v>
       </c>
       <c r="U75">
         <v>1</v>
@@ -9831,7 +9831,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -9840,55 +9840,55 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
+        <v>835</v>
+      </c>
+      <c r="E76" t="s">
         <v>29</v>
-      </c>
-      <c r="E76" t="s">
-        <v>30</v>
       </c>
       <c r="F76">
         <v>2016</v>
       </c>
       <c r="G76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H76">
         <v>2</v>
       </c>
       <c r="I76" t="s">
+        <v>31</v>
+      </c>
+      <c r="J76" t="s">
         <v>32</v>
       </c>
-      <c r="J76" t="s">
-        <v>33</v>
-      </c>
       <c r="K76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M76" t="s">
+        <v>736</v>
+      </c>
+      <c r="N76" t="s">
+        <v>737</v>
+      </c>
+      <c r="O76" t="s">
         <v>738</v>
       </c>
-      <c r="N76" t="s">
+      <c r="P76" t="s">
         <v>739</v>
       </c>
-      <c r="O76" t="s">
+      <c r="Q76" t="s">
         <v>740</v>
       </c>
-      <c r="P76" t="s">
+      <c r="R76" t="s">
         <v>741</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="S76" t="s">
         <v>742</v>
       </c>
-      <c r="R76" t="s">
+      <c r="T76" t="s">
         <v>743</v>
-      </c>
-      <c r="S76" t="s">
-        <v>744</v>
-      </c>
-      <c r="T76" t="s">
-        <v>745</v>
       </c>
       <c r="U76">
         <v>1</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
@@ -9926,55 +9926,55 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
+        <v>835</v>
+      </c>
+      <c r="E77" t="s">
         <v>29</v>
-      </c>
-      <c r="E77" t="s">
-        <v>30</v>
       </c>
       <c r="F77">
         <v>2012</v>
       </c>
       <c r="G77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H77">
         <v>29</v>
       </c>
       <c r="I77" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" t="s">
         <v>32</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>33</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>34</v>
       </c>
-      <c r="L77" t="s">
-        <v>35</v>
-      </c>
       <c r="M77" t="s">
+        <v>745</v>
+      </c>
+      <c r="N77" t="s">
+        <v>746</v>
+      </c>
+      <c r="O77" t="s">
         <v>747</v>
       </c>
-      <c r="N77" t="s">
+      <c r="P77" t="s">
         <v>748</v>
       </c>
-      <c r="O77" t="s">
+      <c r="Q77" t="s">
         <v>749</v>
       </c>
-      <c r="P77" t="s">
+      <c r="R77" t="s">
         <v>750</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="S77" t="s">
         <v>751</v>
       </c>
-      <c r="R77" t="s">
+      <c r="T77" t="s">
         <v>752</v>
-      </c>
-      <c r="S77" t="s">
-        <v>753</v>
-      </c>
-      <c r="T77" t="s">
-        <v>754</v>
       </c>
       <c r="U77">
         <v>1</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
@@ -10012,55 +10012,55 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F78">
         <v>2014</v>
       </c>
       <c r="G78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H78">
         <v>9</v>
       </c>
       <c r="I78" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" t="s">
         <v>32</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>33</v>
       </c>
-      <c r="K78" t="s">
-        <v>34</v>
-      </c>
       <c r="L78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M78" t="s">
+        <v>754</v>
+      </c>
+      <c r="N78" t="s">
+        <v>755</v>
+      </c>
+      <c r="O78" t="s">
         <v>756</v>
       </c>
-      <c r="N78" t="s">
+      <c r="P78" t="s">
         <v>757</v>
       </c>
-      <c r="O78" t="s">
+      <c r="Q78" t="s">
         <v>758</v>
       </c>
-      <c r="P78" t="s">
+      <c r="R78" t="s">
         <v>759</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="S78" t="s">
         <v>760</v>
       </c>
-      <c r="R78" t="s">
+      <c r="T78" t="s">
         <v>761</v>
-      </c>
-      <c r="S78" t="s">
-        <v>762</v>
-      </c>
-      <c r="T78" t="s">
-        <v>763</v>
       </c>
       <c r="U78">
         <v>1</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
@@ -10098,55 +10098,55 @@
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F79">
         <v>2015</v>
       </c>
       <c r="G79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H79">
         <v>7</v>
       </c>
       <c r="I79" t="s">
+        <v>31</v>
+      </c>
+      <c r="J79" t="s">
         <v>32</v>
       </c>
-      <c r="J79" t="s">
-        <v>33</v>
-      </c>
       <c r="K79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L79" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M79" t="s">
+        <v>763</v>
+      </c>
+      <c r="N79" t="s">
+        <v>764</v>
+      </c>
+      <c r="O79" t="s">
         <v>765</v>
       </c>
-      <c r="N79" t="s">
+      <c r="P79" t="s">
         <v>766</v>
       </c>
-      <c r="O79" t="s">
+      <c r="Q79" t="s">
         <v>767</v>
       </c>
-      <c r="P79" t="s">
+      <c r="R79" t="s">
         <v>768</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="S79" t="s">
         <v>769</v>
       </c>
-      <c r="R79" t="s">
+      <c r="T79" t="s">
         <v>770</v>
-      </c>
-      <c r="S79" t="s">
-        <v>771</v>
-      </c>
-      <c r="T79" t="s">
-        <v>772</v>
       </c>
       <c r="U79">
         <v>1</v>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B80" t="b">
         <v>1</v>
@@ -10184,55 +10184,55 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
+        <v>835</v>
+      </c>
+      <c r="E80" t="s">
         <v>29</v>
       </c>
-      <c r="E80" t="s">
-        <v>30</v>
-      </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L80" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M80" t="s">
+        <v>772</v>
+      </c>
+      <c r="N80" t="s">
+        <v>773</v>
+      </c>
+      <c r="O80" t="s">
         <v>774</v>
       </c>
-      <c r="N80" t="s">
+      <c r="P80" t="s">
         <v>775</v>
       </c>
-      <c r="O80" t="s">
+      <c r="Q80" t="s">
         <v>776</v>
       </c>
-      <c r="P80" t="s">
+      <c r="R80" t="s">
         <v>777</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="S80" t="s">
         <v>778</v>
       </c>
-      <c r="R80" t="s">
+      <c r="T80" t="s">
         <v>779</v>
-      </c>
-      <c r="S80" t="s">
-        <v>780</v>
-      </c>
-      <c r="T80" t="s">
-        <v>781</v>
       </c>
       <c r="U80">
         <v>1</v>
@@ -10261,7 +10261,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B81" t="b">
         <v>1</v>
@@ -10270,55 +10270,55 @@
         <v>8</v>
       </c>
       <c r="D81" t="s">
+        <v>835</v>
+      </c>
+      <c r="E81" t="s">
         <v>29</v>
-      </c>
-      <c r="E81" t="s">
-        <v>30</v>
       </c>
       <c r="F81">
         <v>2016</v>
       </c>
       <c r="G81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H81">
         <v>15</v>
       </c>
       <c r="I81" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" t="s">
         <v>32</v>
       </c>
-      <c r="J81" t="s">
-        <v>33</v>
-      </c>
       <c r="K81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L81" t="s">
+        <v>781</v>
+      </c>
+      <c r="M81" t="s">
+        <v>782</v>
+      </c>
+      <c r="N81" t="s">
         <v>783</v>
       </c>
-      <c r="M81" t="s">
+      <c r="O81" t="s">
         <v>784</v>
       </c>
-      <c r="N81" t="s">
+      <c r="P81" t="s">
         <v>785</v>
       </c>
-      <c r="O81" t="s">
+      <c r="Q81" t="s">
         <v>786</v>
       </c>
-      <c r="P81" t="s">
+      <c r="R81" t="s">
         <v>787</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="S81" t="s">
         <v>788</v>
       </c>
-      <c r="R81" t="s">
+      <c r="T81" t="s">
         <v>789</v>
-      </c>
-      <c r="S81" t="s">
-        <v>790</v>
-      </c>
-      <c r="T81" t="s">
-        <v>791</v>
       </c>
       <c r="U81">
         <v>1</v>
@@ -10347,7 +10347,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B82" t="b">
         <v>1</v>
@@ -10356,55 +10356,55 @@
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F82">
         <v>2017</v>
       </c>
       <c r="G82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82" t="s">
+        <v>31</v>
+      </c>
+      <c r="J82" t="s">
         <v>32</v>
       </c>
-      <c r="J82" t="s">
-        <v>33</v>
-      </c>
       <c r="K82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M82" t="s">
+        <v>791</v>
+      </c>
+      <c r="N82" t="s">
+        <v>792</v>
+      </c>
+      <c r="O82" t="s">
         <v>793</v>
       </c>
-      <c r="N82" t="s">
+      <c r="P82" t="s">
         <v>794</v>
       </c>
-      <c r="O82" t="s">
+      <c r="Q82" t="s">
         <v>795</v>
       </c>
-      <c r="P82" t="s">
+      <c r="R82" t="s">
         <v>796</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="S82" t="s">
         <v>797</v>
       </c>
-      <c r="R82" t="s">
+      <c r="T82" t="s">
         <v>798</v>
-      </c>
-      <c r="S82" t="s">
-        <v>799</v>
-      </c>
-      <c r="T82" t="s">
-        <v>800</v>
       </c>
       <c r="U82">
         <v>1</v>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B83" t="b">
         <v>1</v>
@@ -10442,55 +10442,55 @@
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F83">
         <v>2017</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H83">
         <v>26</v>
       </c>
       <c r="I83" t="s">
+        <v>31</v>
+      </c>
+      <c r="J83" t="s">
         <v>32</v>
       </c>
-      <c r="J83" t="s">
-        <v>33</v>
-      </c>
       <c r="K83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L83" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M83" t="s">
+        <v>800</v>
+      </c>
+      <c r="N83" t="s">
+        <v>801</v>
+      </c>
+      <c r="O83" t="s">
         <v>802</v>
       </c>
-      <c r="N83" t="s">
+      <c r="P83" t="s">
         <v>803</v>
       </c>
-      <c r="O83" t="s">
+      <c r="Q83" t="s">
         <v>804</v>
       </c>
-      <c r="P83" t="s">
+      <c r="R83" t="s">
         <v>805</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="S83" t="s">
         <v>806</v>
       </c>
-      <c r="R83" t="s">
+      <c r="T83" t="s">
         <v>807</v>
-      </c>
-      <c r="S83" t="s">
-        <v>808</v>
-      </c>
-      <c r="T83" t="s">
-        <v>809</v>
       </c>
       <c r="U83">
         <v>1</v>
@@ -10519,7 +10519,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
@@ -10528,55 +10528,55 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F84">
         <v>2017</v>
       </c>
       <c r="G84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H84">
         <v>5</v>
       </c>
       <c r="I84" t="s">
+        <v>31</v>
+      </c>
+      <c r="J84" t="s">
         <v>32</v>
       </c>
-      <c r="J84" t="s">
-        <v>33</v>
-      </c>
       <c r="K84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M84" t="s">
+        <v>809</v>
+      </c>
+      <c r="N84" t="s">
+        <v>810</v>
+      </c>
+      <c r="O84" t="s">
         <v>811</v>
       </c>
-      <c r="N84" t="s">
+      <c r="P84" t="s">
         <v>812</v>
       </c>
-      <c r="O84" t="s">
+      <c r="Q84" t="s">
         <v>813</v>
       </c>
-      <c r="P84" t="s">
+      <c r="R84" t="s">
         <v>814</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="S84" t="s">
         <v>815</v>
       </c>
-      <c r="R84" t="s">
+      <c r="T84" t="s">
         <v>816</v>
-      </c>
-      <c r="S84" t="s">
-        <v>817</v>
-      </c>
-      <c r="T84" t="s">
-        <v>818</v>
       </c>
       <c r="U84">
         <v>1</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
@@ -10614,55 +10614,55 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F85">
         <v>2014</v>
       </c>
       <c r="G85" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H85">
         <v>19</v>
       </c>
       <c r="I85" t="s">
+        <v>31</v>
+      </c>
+      <c r="J85" t="s">
         <v>32</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>33</v>
       </c>
-      <c r="K85" t="s">
-        <v>34</v>
-      </c>
       <c r="L85" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M85" t="s">
+        <v>818</v>
+      </c>
+      <c r="N85" t="s">
+        <v>819</v>
+      </c>
+      <c r="O85" t="s">
         <v>820</v>
       </c>
-      <c r="N85" t="s">
+      <c r="P85" t="s">
         <v>821</v>
       </c>
-      <c r="O85" t="s">
+      <c r="Q85" t="s">
         <v>822</v>
       </c>
-      <c r="P85" t="s">
+      <c r="R85" t="s">
         <v>823</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="S85" t="s">
         <v>824</v>
       </c>
-      <c r="R85" t="s">
+      <c r="T85" t="s">
         <v>825</v>
-      </c>
-      <c r="S85" t="s">
-        <v>826</v>
-      </c>
-      <c r="T85" t="s">
-        <v>827</v>
       </c>
       <c r="U85">
         <v>1</v>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B86" t="b">
         <v>1</v>
@@ -10700,55 +10700,55 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
+        <v>835</v>
+      </c>
+      <c r="E86" t="s">
         <v>29</v>
-      </c>
-      <c r="E86" t="s">
-        <v>30</v>
       </c>
       <c r="F86">
         <v>2016</v>
       </c>
       <c r="G86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H86">
         <v>14</v>
       </c>
       <c r="I86" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" t="s">
         <v>32</v>
       </c>
-      <c r="J86" t="s">
-        <v>33</v>
-      </c>
       <c r="K86" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M86" t="s">
+        <v>827</v>
+      </c>
+      <c r="N86" t="s">
+        <v>828</v>
+      </c>
+      <c r="O86" t="s">
         <v>829</v>
       </c>
-      <c r="N86" t="s">
+      <c r="P86" t="s">
         <v>830</v>
       </c>
-      <c r="O86" t="s">
+      <c r="Q86" t="s">
         <v>831</v>
       </c>
-      <c r="P86" t="s">
+      <c r="R86" t="s">
         <v>832</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="S86" t="s">
         <v>833</v>
       </c>
-      <c r="R86" t="s">
+      <c r="T86" t="s">
         <v>834</v>
-      </c>
-      <c r="S86" t="s">
-        <v>835</v>
-      </c>
-      <c r="T86" t="s">
-        <v>836</v>
       </c>
       <c r="U86">
         <v>1</v>

--- a/tabular/genus/ibv/ibv-strains.complete.out.xlsx
+++ b/tabular/genus/ibv/ibv-strains.complete.out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/flu/Flu-GLUE/tabular/genus/ibv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65F7916-967A-504A-AB4D-C33153D6117E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00446E0C-ABA4-E44C-8072-78059A052BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>iso_country</t>
   </si>
   <si>
-    <t>iso_place_name</t>
-  </si>
-  <si>
     <t>segment1_accession</t>
   </si>
   <si>
@@ -2531,6 +2528,9 @@
   </si>
   <si>
     <t>nk|nk|nk|Yamagata|nk|nk|nk|nk</t>
+  </si>
+  <si>
+    <t>iso_region</t>
   </si>
 </sst>
 </file>
@@ -3414,60 +3414,60 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>836</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3476,55 +3476,55 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>2016</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>41</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3562,55 +3562,55 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>2017</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>19</v>
       </c>
       <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
       <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>47</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>48</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>52</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>53</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>54</v>
-      </c>
-      <c r="T3" t="s">
-        <v>55</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3648,55 +3648,55 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
         <v>57</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>58</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>59</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>60</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>61</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>63</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>64</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>65</v>
-      </c>
-      <c r="T4" t="s">
-        <v>66</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3734,55 +3734,55 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>2016</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>28</v>
       </c>
       <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
         <v>69</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>70</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>71</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>73</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>74</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>75</v>
-      </c>
-      <c r="T5" t="s">
-        <v>76</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3820,55 +3820,55 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>2016</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>17</v>
       </c>
       <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s">
         <v>79</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>81</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>82</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>84</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>85</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>86</v>
-      </c>
-      <c r="T6" t="s">
-        <v>87</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3906,55 +3906,55 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>2012</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>8</v>
       </c>
       <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
       <c r="M7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>90</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>91</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>92</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>93</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>94</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>95</v>
-      </c>
-      <c r="T7" t="s">
-        <v>96</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3992,55 +3992,55 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>2016</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
         <v>98</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>99</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>100</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>101</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>102</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>103</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>104</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>105</v>
-      </c>
-      <c r="T8" t="s">
-        <v>106</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4078,55 +4078,55 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9">
         <v>2017</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
       <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
         <v>31</v>
       </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="s">
         <v>109</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>110</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>111</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>112</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>113</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>114</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>115</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>116</v>
-      </c>
-      <c r="T9" t="s">
-        <v>117</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4164,55 +4164,55 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>2016</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10">
         <v>21</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
         <v>31</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>120</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>121</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>122</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>123</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>124</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>125</v>
-      </c>
-      <c r="T10" t="s">
-        <v>126</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4250,55 +4250,55 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>2017</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
         <v>31</v>
       </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="s">
         <v>128</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>129</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>130</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>131</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>132</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>133</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>134</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>135</v>
-      </c>
-      <c r="T11" t="s">
-        <v>136</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4336,55 +4336,55 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>2017</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12">
         <v>15</v>
       </c>
       <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
         <v>31</v>
       </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="s">
         <v>138</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>139</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>140</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>141</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>142</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>143</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>144</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>145</v>
-      </c>
-      <c r="T12" t="s">
-        <v>146</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4422,55 +4422,55 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13">
         <v>2012</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>8</v>
       </c>
       <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
         <v>31</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>32</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="L13" t="s">
-        <v>34</v>
-      </c>
       <c r="M13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" t="s">
         <v>148</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>149</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>150</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>151</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>152</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>153</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>154</v>
-      </c>
-      <c r="T13" t="s">
-        <v>155</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4508,55 +4508,55 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <v>2012</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
         <v>31</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>32</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>33</v>
       </c>
-      <c r="L14" t="s">
-        <v>34</v>
-      </c>
       <c r="M14" t="s">
+        <v>156</v>
+      </c>
+      <c r="N14" t="s">
         <v>157</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>158</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>159</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>161</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>162</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>163</v>
-      </c>
-      <c r="T14" t="s">
-        <v>164</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4594,55 +4594,55 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <v>2016</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>25</v>
       </c>
       <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>32</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>33</v>
       </c>
-      <c r="L15" t="s">
-        <v>34</v>
-      </c>
       <c r="M15" t="s">
+        <v>165</v>
+      </c>
+      <c r="N15" t="s">
         <v>166</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>167</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>168</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>169</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>170</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>171</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>172</v>
-      </c>
-      <c r="T15" t="s">
-        <v>173</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4680,55 +4680,55 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>2014</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>32</v>
       </c>
-      <c r="K16" t="s">
-        <v>33</v>
-      </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M16" t="s">
+        <v>175</v>
+      </c>
+      <c r="N16" t="s">
         <v>176</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>177</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>178</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>179</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>180</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>181</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>182</v>
-      </c>
-      <c r="T16" t="s">
-        <v>183</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4766,55 +4766,55 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17">
         <v>2012</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
         <v>31</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>32</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>33</v>
       </c>
-      <c r="L17" t="s">
-        <v>34</v>
-      </c>
       <c r="M17" t="s">
+        <v>184</v>
+      </c>
+      <c r="N17" t="s">
         <v>185</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>186</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>187</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>188</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>189</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>190</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>191</v>
-      </c>
-      <c r="T17" t="s">
-        <v>192</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4852,55 +4852,55 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18">
         <v>2016</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18">
         <v>29</v>
       </c>
       <c r="I18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" t="s">
         <v>31</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>32</v>
       </c>
-      <c r="K18" t="s">
-        <v>33</v>
-      </c>
       <c r="L18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M18" t="s">
+        <v>193</v>
+      </c>
+      <c r="N18" t="s">
         <v>194</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>195</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>196</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>197</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>198</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>199</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>200</v>
-      </c>
-      <c r="T18" t="s">
-        <v>201</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4938,55 +4938,55 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>2014</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H19">
         <v>19</v>
       </c>
       <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" t="s">
         <v>31</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>32</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>33</v>
       </c>
-      <c r="L19" t="s">
-        <v>34</v>
-      </c>
       <c r="M19" t="s">
+        <v>203</v>
+      </c>
+      <c r="N19" t="s">
         <v>204</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>205</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>206</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>207</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>208</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>209</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>210</v>
-      </c>
-      <c r="T19" t="s">
-        <v>211</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -5024,55 +5024,55 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20">
         <v>2012</v>
       </c>
       <c r="G20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H20">
         <v>24</v>
       </c>
       <c r="I20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" t="s">
         <v>31</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>32</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>33</v>
       </c>
-      <c r="L20" t="s">
-        <v>34</v>
-      </c>
       <c r="M20" t="s">
+        <v>213</v>
+      </c>
+      <c r="N20" t="s">
         <v>214</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>215</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>216</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>217</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>218</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>219</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>220</v>
-      </c>
-      <c r="T20" t="s">
-        <v>221</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -5110,55 +5110,55 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21">
         <v>2014</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21">
         <v>21</v>
       </c>
       <c r="I21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" t="s">
         <v>31</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>32</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>33</v>
       </c>
-      <c r="L21" t="s">
-        <v>34</v>
-      </c>
       <c r="M21" t="s">
+        <v>222</v>
+      </c>
+      <c r="N21" t="s">
         <v>223</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>224</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>225</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>227</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>228</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>229</v>
-      </c>
-      <c r="T21" t="s">
-        <v>230</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -5196,55 +5196,55 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22">
         <v>2016</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H22">
         <v>29</v>
       </c>
       <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" t="s">
         <v>31</v>
       </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L22" t="s">
+        <v>231</v>
+      </c>
+      <c r="M22" t="s">
         <v>232</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>233</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>234</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>235</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>236</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>237</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>238</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>239</v>
-      </c>
-      <c r="T22" t="s">
-        <v>240</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -5282,55 +5282,55 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23">
         <v>2016</v>
       </c>
       <c r="G23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H23">
         <v>5</v>
       </c>
       <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
         <v>31</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>32</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>33</v>
       </c>
-      <c r="L23" t="s">
-        <v>34</v>
-      </c>
       <c r="M23" t="s">
+        <v>241</v>
+      </c>
+      <c r="N23" t="s">
         <v>242</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>243</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>244</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>245</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>246</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>247</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>248</v>
-      </c>
-      <c r="T23" t="s">
-        <v>249</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -5368,55 +5368,55 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24">
         <v>2016</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>14</v>
       </c>
       <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
         <v>31</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>32</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>33</v>
       </c>
-      <c r="L24" t="s">
-        <v>34</v>
-      </c>
       <c r="M24" t="s">
+        <v>250</v>
+      </c>
+      <c r="N24" t="s">
         <v>251</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>252</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>253</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>254</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>255</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>256</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>257</v>
-      </c>
-      <c r="T24" t="s">
-        <v>258</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -5454,55 +5454,55 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25">
         <v>2016</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>14</v>
       </c>
       <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
         <v>31</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>32</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>33</v>
       </c>
-      <c r="L25" t="s">
-        <v>34</v>
-      </c>
       <c r="M25" t="s">
+        <v>259</v>
+      </c>
+      <c r="N25" t="s">
         <v>260</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>261</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>262</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>263</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>264</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>265</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>266</v>
-      </c>
-      <c r="T25" t="s">
-        <v>267</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -5540,55 +5540,55 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26">
         <v>2016</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H26">
         <v>12</v>
       </c>
       <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s">
         <v>31</v>
       </c>
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L26" t="s">
+        <v>268</v>
+      </c>
+      <c r="M26" t="s">
         <v>269</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>270</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>271</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>272</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>273</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>274</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>275</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>276</v>
-      </c>
-      <c r="T26" t="s">
-        <v>277</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -5626,55 +5626,55 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27">
         <v>2014</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H27">
         <v>6</v>
       </c>
       <c r="I27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
         <v>31</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>32</v>
       </c>
-      <c r="K27" t="s">
-        <v>33</v>
-      </c>
       <c r="L27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" t="s">
+        <v>278</v>
+      </c>
+      <c r="N27" t="s">
         <v>279</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>280</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>281</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>282</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>283</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>284</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>285</v>
-      </c>
-      <c r="T27" t="s">
-        <v>286</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -5712,55 +5712,55 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28">
         <v>2016</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28">
         <v>20</v>
       </c>
       <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
         <v>31</v>
       </c>
-      <c r="J28" t="s">
-        <v>32</v>
-      </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M28" t="s">
+        <v>287</v>
+      </c>
+      <c r="N28" t="s">
         <v>288</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>289</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>290</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>291</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>292</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>293</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>294</v>
-      </c>
-      <c r="T28" t="s">
-        <v>295</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -5798,55 +5798,55 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29">
         <v>2016</v>
       </c>
       <c r="G29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H29">
         <v>26</v>
       </c>
       <c r="I29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" t="s">
         <v>31</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>32</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>33</v>
       </c>
-      <c r="L29" t="s">
-        <v>34</v>
-      </c>
       <c r="M29" t="s">
+        <v>296</v>
+      </c>
+      <c r="N29" t="s">
         <v>297</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>298</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>299</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>300</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>301</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>302</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>303</v>
-      </c>
-      <c r="T29" t="s">
-        <v>304</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -5884,55 +5884,55 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30">
         <v>2016</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30">
         <v>27</v>
       </c>
       <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
         <v>31</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>32</v>
       </c>
-      <c r="K30" t="s">
-        <v>33</v>
-      </c>
       <c r="L30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M30" t="s">
+        <v>305</v>
+      </c>
+      <c r="N30" t="s">
         <v>306</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>307</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>308</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>309</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>310</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>311</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>312</v>
-      </c>
-      <c r="T30" t="s">
-        <v>313</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -5970,55 +5970,55 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31">
         <v>2014</v>
       </c>
       <c r="G31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" t="s">
         <v>31</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>32</v>
       </c>
-      <c r="K31" t="s">
-        <v>33</v>
-      </c>
       <c r="L31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M31" t="s">
+        <v>314</v>
+      </c>
+      <c r="N31" t="s">
         <v>315</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>316</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>317</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>318</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>319</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>320</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>321</v>
-      </c>
-      <c r="T31" t="s">
-        <v>322</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -6056,55 +6056,55 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32">
         <v>2016</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32">
         <v>29</v>
       </c>
       <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
         <v>31</v>
       </c>
-      <c r="J32" t="s">
-        <v>32</v>
-      </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M32" t="s">
+        <v>323</v>
+      </c>
+      <c r="N32" t="s">
         <v>324</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>325</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>326</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>327</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>328</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>329</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>330</v>
-      </c>
-      <c r="T32" t="s">
-        <v>331</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -6142,55 +6142,55 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33">
         <v>2017</v>
       </c>
       <c r="G33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H33">
         <v>22</v>
       </c>
       <c r="I33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" t="s">
         <v>31</v>
       </c>
-      <c r="J33" t="s">
-        <v>32</v>
-      </c>
       <c r="K33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L33" t="s">
+        <v>332</v>
+      </c>
+      <c r="M33" t="s">
         <v>333</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>334</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>335</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>336</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>337</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>338</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>339</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>340</v>
-      </c>
-      <c r="T33" t="s">
-        <v>341</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6219,7 +6219,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
@@ -6228,55 +6228,55 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34">
         <v>2017</v>
       </c>
       <c r="G34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H34">
         <v>19</v>
       </c>
       <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" t="s">
         <v>31</v>
       </c>
-      <c r="J34" t="s">
-        <v>32</v>
-      </c>
       <c r="K34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L34" t="s">
+        <v>343</v>
+      </c>
+      <c r="M34" t="s">
         <v>344</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>345</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>346</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>347</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>348</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>349</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>350</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>351</v>
-      </c>
-      <c r="T34" t="s">
-        <v>352</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -6314,55 +6314,55 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35">
         <v>2015</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35">
         <v>24</v>
       </c>
       <c r="I35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" t="s">
         <v>31</v>
       </c>
-      <c r="J35" t="s">
-        <v>32</v>
-      </c>
       <c r="K35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L35" t="s">
+        <v>353</v>
+      </c>
+      <c r="M35" t="s">
         <v>354</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>355</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>356</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>357</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>358</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>359</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>360</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>361</v>
-      </c>
-      <c r="T35" t="s">
-        <v>362</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -6400,55 +6400,55 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36">
         <v>2015</v>
       </c>
       <c r="G36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36">
         <v>25</v>
       </c>
       <c r="I36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" t="s">
         <v>31</v>
       </c>
-      <c r="J36" t="s">
-        <v>32</v>
-      </c>
       <c r="K36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L36" t="s">
+        <v>363</v>
+      </c>
+      <c r="M36" t="s">
         <v>364</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>365</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>366</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>367</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>368</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>369</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>370</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>371</v>
-      </c>
-      <c r="T36" t="s">
-        <v>372</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -6486,55 +6486,55 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37">
         <v>2017</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <v>23</v>
       </c>
       <c r="I37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" t="s">
         <v>31</v>
       </c>
-      <c r="J37" t="s">
-        <v>32</v>
-      </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M37" t="s">
+        <v>373</v>
+      </c>
+      <c r="N37" t="s">
         <v>374</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>375</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>376</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>377</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>378</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>379</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>380</v>
-      </c>
-      <c r="T37" t="s">
-        <v>381</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
@@ -6572,55 +6572,55 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38">
         <v>2014</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H38">
         <v>13</v>
       </c>
       <c r="I38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" t="s">
         <v>31</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>32</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>33</v>
       </c>
-      <c r="L38" t="s">
-        <v>34</v>
-      </c>
       <c r="M38" t="s">
+        <v>382</v>
+      </c>
+      <c r="N38" t="s">
         <v>383</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>384</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>385</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>386</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>387</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>388</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>389</v>
-      </c>
-      <c r="T38" t="s">
-        <v>390</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -6658,55 +6658,55 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39">
         <v>2012</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H39">
         <v>19</v>
       </c>
       <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" t="s">
         <v>31</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>32</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>33</v>
       </c>
-      <c r="L39" t="s">
-        <v>34</v>
-      </c>
       <c r="M39" t="s">
+        <v>391</v>
+      </c>
+      <c r="N39" t="s">
         <v>392</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>393</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>394</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>395</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>396</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>397</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>398</v>
-      </c>
-      <c r="T39" t="s">
-        <v>399</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -6744,55 +6744,55 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40">
         <v>2017</v>
       </c>
       <c r="G40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H40">
         <v>12</v>
       </c>
       <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
         <v>31</v>
       </c>
-      <c r="J40" t="s">
-        <v>32</v>
-      </c>
       <c r="K40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L40" t="s">
+        <v>401</v>
+      </c>
+      <c r="M40" t="s">
         <v>402</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>403</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>404</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>405</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>406</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>407</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>408</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>409</v>
-      </c>
-      <c r="T40" t="s">
-        <v>410</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
@@ -6830,55 +6830,55 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41">
         <v>2016</v>
       </c>
       <c r="G41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H41">
         <v>26</v>
       </c>
       <c r="I41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" t="s">
         <v>31</v>
       </c>
-      <c r="J41" t="s">
-        <v>32</v>
-      </c>
       <c r="K41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L41" t="s">
+        <v>411</v>
+      </c>
+      <c r="M41" t="s">
         <v>412</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>413</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>414</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>415</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>416</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>417</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>418</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>419</v>
-      </c>
-      <c r="T41" t="s">
-        <v>420</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
@@ -6916,55 +6916,55 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42">
         <v>2016</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H42">
         <v>6</v>
       </c>
       <c r="I42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" t="s">
         <v>31</v>
       </c>
-      <c r="J42" t="s">
-        <v>32</v>
-      </c>
       <c r="K42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s">
+        <v>421</v>
+      </c>
+      <c r="N42" t="s">
         <v>422</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>423</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>424</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>425</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>426</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>427</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>428</v>
-      </c>
-      <c r="T42" t="s">
-        <v>429</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
@@ -7002,55 +7002,55 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43">
         <v>2015</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H43">
         <v>12</v>
       </c>
       <c r="I43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
         <v>31</v>
       </c>
-      <c r="J43" t="s">
-        <v>32</v>
-      </c>
       <c r="K43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L43" t="s">
+        <v>430</v>
+      </c>
+      <c r="M43" t="s">
         <v>431</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>432</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>433</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>434</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>435</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>436</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>437</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>438</v>
-      </c>
-      <c r="T43" t="s">
-        <v>439</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -7088,55 +7088,55 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44">
         <v>2017</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" t="s">
         <v>31</v>
       </c>
-      <c r="J44" t="s">
-        <v>32</v>
-      </c>
       <c r="K44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s">
+        <v>440</v>
+      </c>
+      <c r="N44" t="s">
         <v>441</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>442</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>443</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>444</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>445</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>446</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>447</v>
-      </c>
-      <c r="T44" t="s">
-        <v>448</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -7174,55 +7174,55 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45">
         <v>2015</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H45">
         <v>26</v>
       </c>
       <c r="I45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" t="s">
         <v>31</v>
       </c>
-      <c r="J45" t="s">
-        <v>32</v>
-      </c>
       <c r="K45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L45" t="s">
+        <v>449</v>
+      </c>
+      <c r="M45" t="s">
         <v>450</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>451</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>452</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>453</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>454</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>455</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>456</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>457</v>
-      </c>
-      <c r="T45" t="s">
-        <v>458</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
@@ -7260,55 +7260,55 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46">
         <v>2017</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" t="s">
         <v>31</v>
       </c>
-      <c r="J46" t="s">
-        <v>32</v>
-      </c>
       <c r="K46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L46" t="s">
+        <v>459</v>
+      </c>
+      <c r="M46" t="s">
         <v>460</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>461</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>462</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>463</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>464</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>465</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>466</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>467</v>
-      </c>
-      <c r="T46" t="s">
-        <v>468</v>
       </c>
       <c r="U46">
         <v>1</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
@@ -7346,55 +7346,55 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47">
         <v>2015</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" t="s">
         <v>31</v>
       </c>
-      <c r="J47" t="s">
-        <v>32</v>
-      </c>
       <c r="K47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s">
+        <v>469</v>
+      </c>
+      <c r="N47" t="s">
         <v>470</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>471</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>472</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>473</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>474</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>475</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>476</v>
-      </c>
-      <c r="T47" t="s">
-        <v>477</v>
       </c>
       <c r="U47">
         <v>1</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
@@ -7432,55 +7432,55 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F48">
         <v>2016</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H48">
         <v>24</v>
       </c>
       <c r="I48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" t="s">
         <v>31</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>32</v>
       </c>
-      <c r="K48" t="s">
-        <v>33</v>
-      </c>
       <c r="L48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M48" t="s">
+        <v>478</v>
+      </c>
+      <c r="N48" t="s">
         <v>479</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>480</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>481</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>482</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>483</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>484</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>485</v>
-      </c>
-      <c r="T48" t="s">
-        <v>486</v>
       </c>
       <c r="U48">
         <v>1</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -7518,55 +7518,55 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F49">
         <v>2012</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>14</v>
       </c>
       <c r="I49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" t="s">
         <v>31</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>32</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>33</v>
       </c>
-      <c r="L49" t="s">
-        <v>34</v>
-      </c>
       <c r="M49" t="s">
+        <v>487</v>
+      </c>
+      <c r="N49" t="s">
         <v>488</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>489</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>490</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>491</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>492</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>493</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>494</v>
-      </c>
-      <c r="T49" t="s">
-        <v>495</v>
       </c>
       <c r="U49">
         <v>1</v>
@@ -7595,7 +7595,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -7604,55 +7604,55 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F50">
         <v>2012</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>7</v>
       </c>
       <c r="I50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" t="s">
         <v>31</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>32</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>33</v>
       </c>
-      <c r="L50" t="s">
-        <v>34</v>
-      </c>
       <c r="M50" t="s">
+        <v>496</v>
+      </c>
+      <c r="N50" t="s">
         <v>497</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>498</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>499</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>500</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>501</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>502</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>503</v>
-      </c>
-      <c r="T50" t="s">
-        <v>504</v>
       </c>
       <c r="U50">
         <v>1</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -7690,55 +7690,55 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51">
         <v>2016</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51">
         <v>28</v>
       </c>
       <c r="I51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" t="s">
         <v>31</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>32</v>
       </c>
-      <c r="K51" t="s">
-        <v>33</v>
-      </c>
       <c r="L51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M51" t="s">
+        <v>505</v>
+      </c>
+      <c r="N51" t="s">
         <v>506</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>507</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>508</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>509</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>510</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>511</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>512</v>
-      </c>
-      <c r="T51" t="s">
-        <v>513</v>
       </c>
       <c r="U51">
         <v>1</v>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -7776,55 +7776,55 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F52">
         <v>2016</v>
       </c>
       <c r="G52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" t="s">
         <v>31</v>
       </c>
-      <c r="J52" t="s">
-        <v>32</v>
-      </c>
       <c r="K52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L52" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M52" t="s">
+        <v>514</v>
+      </c>
+      <c r="N52" t="s">
         <v>515</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>516</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>517</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>518</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>519</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>520</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>521</v>
-      </c>
-      <c r="T52" t="s">
-        <v>522</v>
       </c>
       <c r="U52">
         <v>1</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
@@ -7862,55 +7862,55 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53">
         <v>2016</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H53">
         <v>9</v>
       </c>
       <c r="I53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" t="s">
         <v>31</v>
       </c>
-      <c r="J53" t="s">
-        <v>32</v>
-      </c>
       <c r="K53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L53" t="s">
+        <v>523</v>
+      </c>
+      <c r="M53" t="s">
         <v>524</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>525</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>526</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>527</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>528</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>529</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>530</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>531</v>
-      </c>
-      <c r="T53" t="s">
-        <v>532</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -7948,55 +7948,55 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F54">
         <v>2016</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H54">
         <v>21</v>
       </c>
       <c r="I54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" t="s">
         <v>31</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>32</v>
       </c>
-      <c r="K54" t="s">
-        <v>33</v>
-      </c>
       <c r="L54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M54" t="s">
+        <v>533</v>
+      </c>
+      <c r="N54" t="s">
         <v>534</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>535</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>536</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>537</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>538</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>539</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>540</v>
-      </c>
-      <c r="T54" t="s">
-        <v>541</v>
       </c>
       <c r="U54">
         <v>1</v>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
@@ -8034,55 +8034,55 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55">
         <v>2016</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H55">
         <v>19</v>
       </c>
       <c r="I55" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" t="s">
         <v>31</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>32</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>33</v>
       </c>
-      <c r="L55" t="s">
-        <v>34</v>
-      </c>
       <c r="M55" t="s">
+        <v>542</v>
+      </c>
+      <c r="N55" t="s">
         <v>543</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>544</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>545</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>546</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>547</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>548</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>549</v>
-      </c>
-      <c r="T55" t="s">
-        <v>550</v>
       </c>
       <c r="U55">
         <v>1</v>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -8120,55 +8120,55 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56">
         <v>2016</v>
       </c>
       <c r="G56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H56">
         <v>9</v>
       </c>
       <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" t="s">
         <v>31</v>
       </c>
-      <c r="J56" t="s">
-        <v>32</v>
-      </c>
       <c r="K56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L56" t="s">
+        <v>551</v>
+      </c>
+      <c r="M56" t="s">
         <v>552</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>553</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>554</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>555</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>556</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>557</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>558</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>559</v>
-      </c>
-      <c r="T56" t="s">
-        <v>560</v>
       </c>
       <c r="U56">
         <v>1</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -8206,55 +8206,55 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F57">
         <v>2016</v>
       </c>
       <c r="G57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H57">
         <v>21</v>
       </c>
       <c r="I57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" t="s">
         <v>31</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>32</v>
       </c>
-      <c r="K57" t="s">
-        <v>33</v>
-      </c>
       <c r="L57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M57" t="s">
+        <v>561</v>
+      </c>
+      <c r="N57" t="s">
         <v>562</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>563</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>564</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>565</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>566</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>567</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>568</v>
-      </c>
-      <c r="T57" t="s">
-        <v>569</v>
       </c>
       <c r="U57">
         <v>1</v>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -8292,55 +8292,55 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58">
         <v>2014</v>
       </c>
       <c r="G58" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H58">
         <v>31</v>
       </c>
       <c r="I58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" t="s">
         <v>31</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>32</v>
       </c>
-      <c r="K58" t="s">
-        <v>33</v>
-      </c>
       <c r="L58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M58" t="s">
+        <v>571</v>
+      </c>
+      <c r="N58" t="s">
         <v>572</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>573</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>574</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>575</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>576</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>577</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>578</v>
-      </c>
-      <c r="T58" t="s">
-        <v>579</v>
       </c>
       <c r="U58">
         <v>1</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -8378,55 +8378,55 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59">
         <v>2017</v>
       </c>
       <c r="G59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H59">
         <v>25</v>
       </c>
       <c r="I59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" t="s">
         <v>31</v>
       </c>
-      <c r="J59" t="s">
-        <v>32</v>
-      </c>
       <c r="K59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L59" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M59" t="s">
+        <v>580</v>
+      </c>
+      <c r="N59" t="s">
         <v>581</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>582</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>583</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>584</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>585</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>586</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>587</v>
-      </c>
-      <c r="T59" t="s">
-        <v>588</v>
       </c>
       <c r="U59">
         <v>1</v>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
@@ -8464,55 +8464,55 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60">
         <v>2017</v>
       </c>
       <c r="G60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H60">
         <v>8</v>
       </c>
       <c r="I60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" t="s">
         <v>31</v>
       </c>
-      <c r="J60" t="s">
-        <v>32</v>
-      </c>
       <c r="K60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M60" t="s">
+        <v>589</v>
+      </c>
+      <c r="N60" t="s">
         <v>590</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>591</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>592</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>593</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>594</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>595</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>596</v>
-      </c>
-      <c r="T60" t="s">
-        <v>597</v>
       </c>
       <c r="U60">
         <v>1</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -8550,55 +8550,55 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61">
         <v>2016</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H61">
         <v>17</v>
       </c>
       <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" t="s">
         <v>31</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>32</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>33</v>
       </c>
-      <c r="L61" t="s">
-        <v>34</v>
-      </c>
       <c r="M61" t="s">
+        <v>598</v>
+      </c>
+      <c r="N61" t="s">
         <v>599</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>600</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>601</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>602</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>603</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>604</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>605</v>
-      </c>
-      <c r="T61" t="s">
-        <v>606</v>
       </c>
       <c r="U61">
         <v>1</v>
@@ -8627,7 +8627,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -8636,55 +8636,55 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62">
         <v>2017</v>
       </c>
       <c r="G62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H62">
         <v>5</v>
       </c>
       <c r="I62" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" t="s">
         <v>31</v>
       </c>
-      <c r="J62" t="s">
-        <v>32</v>
-      </c>
       <c r="K62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M62" t="s">
+        <v>607</v>
+      </c>
+      <c r="N62" t="s">
         <v>608</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>609</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>610</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>611</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>612</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>613</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>614</v>
-      </c>
-      <c r="T62" t="s">
-        <v>615</v>
       </c>
       <c r="U62">
         <v>1</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -8722,55 +8722,55 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F63">
         <v>2012</v>
       </c>
       <c r="G63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H63">
         <v>13</v>
       </c>
       <c r="I63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" t="s">
         <v>31</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>32</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>33</v>
       </c>
-      <c r="L63" t="s">
-        <v>34</v>
-      </c>
       <c r="M63" t="s">
+        <v>616</v>
+      </c>
+      <c r="N63" t="s">
         <v>617</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>618</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>619</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>620</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>621</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>622</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>623</v>
-      </c>
-      <c r="T63" t="s">
-        <v>624</v>
       </c>
       <c r="U63">
         <v>1</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -8808,55 +8808,55 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64">
         <v>2016</v>
       </c>
       <c r="G64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H64">
         <v>14</v>
       </c>
       <c r="I64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64" t="s">
         <v>31</v>
       </c>
-      <c r="J64" t="s">
-        <v>32</v>
-      </c>
       <c r="K64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M64" t="s">
+        <v>625</v>
+      </c>
+      <c r="N64" t="s">
         <v>626</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>627</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>628</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>629</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>630</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>631</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>632</v>
-      </c>
-      <c r="T64" t="s">
-        <v>633</v>
       </c>
       <c r="U64">
         <v>1</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
@@ -8894,55 +8894,55 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F65">
         <v>2017</v>
       </c>
       <c r="G65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H65">
         <v>14</v>
       </c>
       <c r="I65" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65" t="s">
         <v>31</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>32</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>33</v>
       </c>
-      <c r="L65" t="s">
-        <v>34</v>
-      </c>
       <c r="M65" t="s">
+        <v>634</v>
+      </c>
+      <c r="N65" t="s">
         <v>635</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>636</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>637</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>638</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>639</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>640</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>641</v>
-      </c>
-      <c r="T65" t="s">
-        <v>642</v>
       </c>
       <c r="U65">
         <v>1</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
@@ -8980,55 +8980,55 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F66">
         <v>2016</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66">
         <v>14</v>
       </c>
       <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" t="s">
         <v>31</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>32</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>33</v>
       </c>
-      <c r="L66" t="s">
-        <v>34</v>
-      </c>
       <c r="M66" t="s">
+        <v>643</v>
+      </c>
+      <c r="N66" t="s">
         <v>644</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>645</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>646</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>647</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>648</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>649</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>650</v>
-      </c>
-      <c r="T66" t="s">
-        <v>651</v>
       </c>
       <c r="U66">
         <v>1</v>
@@ -9057,7 +9057,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
@@ -9066,55 +9066,55 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67">
         <v>2016</v>
       </c>
       <c r="G67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H67">
         <v>19</v>
       </c>
       <c r="I67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" t="s">
         <v>31</v>
       </c>
-      <c r="J67" t="s">
-        <v>32</v>
-      </c>
       <c r="K67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M67" t="s">
+        <v>652</v>
+      </c>
+      <c r="N67" t="s">
         <v>653</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>654</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>655</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>656</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>657</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>658</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>659</v>
-      </c>
-      <c r="T67" t="s">
-        <v>660</v>
       </c>
       <c r="U67">
         <v>1</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -9152,55 +9152,55 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68">
         <v>2000</v>
       </c>
       <c r="G68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" t="s">
         <v>31</v>
       </c>
-      <c r="J68" t="s">
-        <v>32</v>
-      </c>
       <c r="K68" t="s">
+        <v>661</v>
+      </c>
+      <c r="L68" t="s">
+        <v>57</v>
+      </c>
+      <c r="M68" t="s">
         <v>662</v>
       </c>
-      <c r="L68" t="s">
-        <v>58</v>
-      </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>663</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>664</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>665</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>666</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>667</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>668</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>669</v>
-      </c>
-      <c r="T68" t="s">
-        <v>670</v>
       </c>
       <c r="U68">
         <v>1</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -9238,55 +9238,55 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69">
         <v>2016</v>
       </c>
       <c r="G69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H69">
         <v>26</v>
       </c>
       <c r="I69" t="s">
+        <v>30</v>
+      </c>
+      <c r="J69" t="s">
         <v>31</v>
       </c>
-      <c r="J69" t="s">
-        <v>32</v>
-      </c>
       <c r="K69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L69" t="s">
+        <v>671</v>
+      </c>
+      <c r="M69" t="s">
         <v>672</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>673</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>674</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>675</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>676</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>677</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>678</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>679</v>
-      </c>
-      <c r="T69" t="s">
-        <v>680</v>
       </c>
       <c r="U69">
         <v>1</v>
@@ -9315,7 +9315,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -9324,55 +9324,55 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F70">
         <v>2012</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>12</v>
       </c>
       <c r="I70" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" t="s">
         <v>31</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>32</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>33</v>
       </c>
-      <c r="L70" t="s">
-        <v>34</v>
-      </c>
       <c r="M70" t="s">
+        <v>681</v>
+      </c>
+      <c r="N70" t="s">
         <v>682</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>683</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>684</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>685</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>686</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>687</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>688</v>
-      </c>
-      <c r="T70" t="s">
-        <v>689</v>
       </c>
       <c r="U70">
         <v>1</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -9410,55 +9410,55 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71">
         <v>2014</v>
       </c>
       <c r="G71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H71">
         <v>4</v>
       </c>
       <c r="I71" t="s">
+        <v>30</v>
+      </c>
+      <c r="J71" t="s">
         <v>31</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>32</v>
       </c>
-      <c r="K71" t="s">
-        <v>33</v>
-      </c>
       <c r="L71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M71" t="s">
+        <v>690</v>
+      </c>
+      <c r="N71" t="s">
         <v>691</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>692</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>693</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>694</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>695</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>696</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>697</v>
-      </c>
-      <c r="T71" t="s">
-        <v>698</v>
       </c>
       <c r="U71">
         <v>1</v>
@@ -9487,7 +9487,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
@@ -9496,55 +9496,55 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72">
         <v>2015</v>
       </c>
       <c r="G72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H72">
         <v>4</v>
       </c>
       <c r="I72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" t="s">
         <v>31</v>
       </c>
-      <c r="J72" t="s">
-        <v>32</v>
-      </c>
       <c r="K72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L72" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M72" t="s">
+        <v>699</v>
+      </c>
+      <c r="N72" t="s">
         <v>700</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>701</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>702</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>703</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>704</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>705</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>706</v>
-      </c>
-      <c r="T72" t="s">
-        <v>707</v>
       </c>
       <c r="U72">
         <v>1</v>
@@ -9573,7 +9573,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -9582,55 +9582,55 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F73">
         <v>2012</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>20</v>
       </c>
       <c r="I73" t="s">
+        <v>30</v>
+      </c>
+      <c r="J73" t="s">
         <v>31</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>32</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>33</v>
       </c>
-      <c r="L73" t="s">
-        <v>34</v>
-      </c>
       <c r="M73" t="s">
+        <v>708</v>
+      </c>
+      <c r="N73" t="s">
         <v>709</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>710</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>711</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>712</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>713</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>714</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>715</v>
-      </c>
-      <c r="T73" t="s">
-        <v>716</v>
       </c>
       <c r="U73">
         <v>1</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -9668,55 +9668,55 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F74">
         <v>2012</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>10</v>
       </c>
       <c r="I74" t="s">
+        <v>30</v>
+      </c>
+      <c r="J74" t="s">
         <v>31</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>32</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>33</v>
       </c>
-      <c r="L74" t="s">
-        <v>34</v>
-      </c>
       <c r="M74" t="s">
+        <v>717</v>
+      </c>
+      <c r="N74" t="s">
         <v>718</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>719</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>720</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>721</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>722</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>723</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>724</v>
-      </c>
-      <c r="T74" t="s">
-        <v>725</v>
       </c>
       <c r="U74">
         <v>1</v>
@@ -9745,7 +9745,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
@@ -9754,55 +9754,55 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F75">
         <v>2017</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H75">
         <v>9</v>
       </c>
       <c r="I75" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" t="s">
         <v>31</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>32</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>33</v>
       </c>
-      <c r="L75" t="s">
-        <v>34</v>
-      </c>
       <c r="M75" t="s">
+        <v>726</v>
+      </c>
+      <c r="N75" t="s">
         <v>727</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>728</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>729</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>730</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>731</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>732</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>733</v>
-      </c>
-      <c r="T75" t="s">
-        <v>734</v>
       </c>
       <c r="U75">
         <v>1</v>
@@ -9831,7 +9831,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -9840,55 +9840,55 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F76">
         <v>2016</v>
       </c>
       <c r="G76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H76">
         <v>2</v>
       </c>
       <c r="I76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" t="s">
         <v>31</v>
       </c>
-      <c r="J76" t="s">
-        <v>32</v>
-      </c>
       <c r="K76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M76" t="s">
+        <v>735</v>
+      </c>
+      <c r="N76" t="s">
         <v>736</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>737</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>738</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>739</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>740</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>741</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>742</v>
-      </c>
-      <c r="T76" t="s">
-        <v>743</v>
       </c>
       <c r="U76">
         <v>1</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
@@ -9926,55 +9926,55 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F77">
         <v>2012</v>
       </c>
       <c r="G77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H77">
         <v>29</v>
       </c>
       <c r="I77" t="s">
+        <v>30</v>
+      </c>
+      <c r="J77" t="s">
         <v>31</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>32</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>33</v>
       </c>
-      <c r="L77" t="s">
-        <v>34</v>
-      </c>
       <c r="M77" t="s">
+        <v>744</v>
+      </c>
+      <c r="N77" t="s">
         <v>745</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>746</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>747</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>748</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>749</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>750</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>751</v>
-      </c>
-      <c r="T77" t="s">
-        <v>752</v>
       </c>
       <c r="U77">
         <v>1</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
@@ -10012,55 +10012,55 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78">
         <v>2014</v>
       </c>
       <c r="G78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H78">
         <v>9</v>
       </c>
       <c r="I78" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78" t="s">
         <v>31</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>32</v>
       </c>
-      <c r="K78" t="s">
-        <v>33</v>
-      </c>
       <c r="L78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M78" t="s">
+        <v>753</v>
+      </c>
+      <c r="N78" t="s">
         <v>754</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>755</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>756</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>757</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>758</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>759</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>760</v>
-      </c>
-      <c r="T78" t="s">
-        <v>761</v>
       </c>
       <c r="U78">
         <v>1</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
@@ -10098,55 +10098,55 @@
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F79">
         <v>2015</v>
       </c>
       <c r="G79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H79">
         <v>7</v>
       </c>
       <c r="I79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" t="s">
         <v>31</v>
       </c>
-      <c r="J79" t="s">
-        <v>32</v>
-      </c>
       <c r="K79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M79" t="s">
+        <v>762</v>
+      </c>
+      <c r="N79" t="s">
         <v>763</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>764</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>765</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>766</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>767</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>768</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>769</v>
-      </c>
-      <c r="T79" t="s">
-        <v>770</v>
       </c>
       <c r="U79">
         <v>1</v>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B80" t="b">
         <v>1</v>
@@ -10184,55 +10184,55 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M80" t="s">
+        <v>771</v>
+      </c>
+      <c r="N80" t="s">
         <v>772</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>773</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>774</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>775</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>776</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>777</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>778</v>
-      </c>
-      <c r="T80" t="s">
-        <v>779</v>
       </c>
       <c r="U80">
         <v>1</v>
@@ -10261,7 +10261,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B81" t="b">
         <v>1</v>
@@ -10270,55 +10270,55 @@
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F81">
         <v>2016</v>
       </c>
       <c r="G81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H81">
         <v>15</v>
       </c>
       <c r="I81" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" t="s">
         <v>31</v>
       </c>
-      <c r="J81" t="s">
-        <v>32</v>
-      </c>
       <c r="K81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L81" t="s">
+        <v>780</v>
+      </c>
+      <c r="M81" t="s">
         <v>781</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>782</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>783</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>784</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>785</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>786</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>787</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>788</v>
-      </c>
-      <c r="T81" t="s">
-        <v>789</v>
       </c>
       <c r="U81">
         <v>1</v>
@@ -10347,7 +10347,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B82" t="b">
         <v>1</v>
@@ -10356,55 +10356,55 @@
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82">
         <v>2017</v>
       </c>
       <c r="G82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J82" t="s">
         <v>31</v>
       </c>
-      <c r="J82" t="s">
-        <v>32</v>
-      </c>
       <c r="K82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M82" t="s">
+        <v>790</v>
+      </c>
+      <c r="N82" t="s">
         <v>791</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>792</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>793</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>794</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>795</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>796</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>797</v>
-      </c>
-      <c r="T82" t="s">
-        <v>798</v>
       </c>
       <c r="U82">
         <v>1</v>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B83" t="b">
         <v>1</v>
@@ -10442,55 +10442,55 @@
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F83">
         <v>2017</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H83">
         <v>26</v>
       </c>
       <c r="I83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J83" t="s">
         <v>31</v>
       </c>
-      <c r="J83" t="s">
-        <v>32</v>
-      </c>
       <c r="K83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L83" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M83" t="s">
+        <v>799</v>
+      </c>
+      <c r="N83" t="s">
         <v>800</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>801</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>802</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>803</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>804</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>805</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>806</v>
-      </c>
-      <c r="T83" t="s">
-        <v>807</v>
       </c>
       <c r="U83">
         <v>1</v>
@@ -10519,7 +10519,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
@@ -10528,55 +10528,55 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F84">
         <v>2017</v>
       </c>
       <c r="G84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H84">
         <v>5</v>
       </c>
       <c r="I84" t="s">
+        <v>30</v>
+      </c>
+      <c r="J84" t="s">
         <v>31</v>
       </c>
-      <c r="J84" t="s">
-        <v>32</v>
-      </c>
       <c r="K84" t="s">
+        <v>45</v>
+      </c>
+      <c r="L84" t="s">
         <v>46</v>
       </c>
-      <c r="L84" t="s">
-        <v>47</v>
-      </c>
       <c r="M84" t="s">
+        <v>808</v>
+      </c>
+      <c r="N84" t="s">
         <v>809</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>810</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>811</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>812</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>813</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>814</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>815</v>
-      </c>
-      <c r="T84" t="s">
-        <v>816</v>
       </c>
       <c r="U84">
         <v>1</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
@@ -10614,55 +10614,55 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F85">
         <v>2014</v>
       </c>
       <c r="G85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H85">
         <v>19</v>
       </c>
       <c r="I85" t="s">
+        <v>30</v>
+      </c>
+      <c r="J85" t="s">
         <v>31</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>32</v>
       </c>
-      <c r="K85" t="s">
-        <v>33</v>
-      </c>
       <c r="L85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M85" t="s">
+        <v>817</v>
+      </c>
+      <c r="N85" t="s">
         <v>818</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>819</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>820</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>821</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>822</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>823</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>824</v>
-      </c>
-      <c r="T85" t="s">
-        <v>825</v>
       </c>
       <c r="U85">
         <v>1</v>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B86" t="b">
         <v>1</v>
@@ -10700,55 +10700,55 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F86">
         <v>2016</v>
       </c>
       <c r="G86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H86">
         <v>14</v>
       </c>
       <c r="I86" t="s">
+        <v>30</v>
+      </c>
+      <c r="J86" t="s">
         <v>31</v>
       </c>
-      <c r="J86" t="s">
-        <v>32</v>
-      </c>
       <c r="K86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M86" t="s">
+        <v>826</v>
+      </c>
+      <c r="N86" t="s">
         <v>827</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>828</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>829</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>830</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>831</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>832</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>833</v>
-      </c>
-      <c r="T86" t="s">
-        <v>834</v>
       </c>
       <c r="U86">
         <v>1</v>
